--- a/Gabarit-final .xlsx
+++ b/Gabarit-final .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmetivier-dionne/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDCB031-411E-4610-A630-A91577DB1422}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="1860" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,12 @@
     <sheet name="QUESTION 3" sheetId="3" r:id="rId3"/>
     <sheet name="QUESTION 6" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>Années</t>
   </si>
@@ -83,22 +84,7 @@
     <t>RCR</t>
   </si>
   <si>
-    <t>1er trimestre</t>
-  </si>
-  <si>
     <t>Inflation</t>
-  </si>
-  <si>
-    <t>3e trimestre</t>
-  </si>
-  <si>
-    <t>2e trimestre</t>
-  </si>
-  <si>
-    <t>4e trimestre</t>
-  </si>
-  <si>
-    <t>Rente mensuelle de la PSV 2020</t>
   </si>
   <si>
     <t>Ne s'applique avant 65 ans</t>
@@ -111,9 +97,6 @@
   </si>
   <si>
     <t>Période d'allocation enfants &lt; 7 ans</t>
-  </si>
-  <si>
-    <t>Moyenne des 5 dernières années MGA</t>
   </si>
   <si>
     <t>15% des pires années (mois) retirées</t>
@@ -139,16 +122,45 @@
   <si>
     <t>% de la RRB qui sera versé</t>
   </si>
+  <si>
+    <t>Moyenne des 5 dernières années MGA (au moment de la retraite)</t>
+  </si>
+  <si>
+    <t>Les salaires ajustés demeurent les mêmes, car le salaire augmente au même rythme que le MGA</t>
+  </si>
+  <si>
+    <t>Réduction de la SRG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant sans réduction personne seule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemption des </t>
+  </si>
+  <si>
+    <t>premiers dollars</t>
+  </si>
+  <si>
+    <t>Montant sujet à la réduction SRG</t>
+  </si>
+  <si>
+    <t>Réduction de 1$ pour chaque 2$, la réduction sera donc de :</t>
+  </si>
+  <si>
+    <t>La rente de SRG sera donc de :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +178,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -448,7 +472,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,9 +521,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -527,6 +548,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -847,32 +888,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.77734375" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -885,14 +926,14 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>22</v>
+      <c r="F2" s="38" t="s">
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -906,7 +947,7 @@
         <f t="shared" ref="E3:E59" si="0">E4/(1+$G$17)</f>
         <v>11582.008786282422</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="39">
         <f>(D3/E3)*$G$28</f>
         <v>0</v>
       </c>
@@ -914,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -930,7 +971,7 @@
         <f t="shared" si="0"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="39">
         <f t="shared" ref="F4:F62" si="1">(D4/E4)*$G$28</f>
         <v>0</v>
       </c>
@@ -941,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
@@ -957,7 +998,7 @@
         <f t="shared" si="0"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -969,7 +1010,7 @@
         <v>8397.9725432018859</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -985,7 +1026,7 @@
         <f t="shared" si="0"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -996,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1964</v>
@@ -1015,7 +1056,7 @@
         <f t="shared" si="0"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1026,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
@@ -1045,7 +1086,7 @@
         <f t="shared" si="0"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1056,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1966</v>
@@ -1072,7 +1113,7 @@
         <f t="shared" si="0"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1083,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1967</v>
@@ -1099,19 +1140,19 @@
         <f t="shared" si="0"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="46">
         <f>SUM(L4:L9)</f>
         <v>8397.9725432018859</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1968</v>
@@ -1127,7 +1168,7 @@
         <f t="shared" si="0"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1139,7 +1180,7 @@
         <v>0.17692979128203698</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1969</v>
@@ -1155,7 +1196,7 @@
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1164,7 +1205,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
@@ -1180,7 +1221,7 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1189,7 +1230,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>1971</v>
@@ -1205,16 +1246,16 @@
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="F14" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>1972</v>
@@ -1230,12 +1271,12 @@
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="F15" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>1973</v>
@@ -1251,15 +1292,15 @@
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -1275,7 +1316,7 @@
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1283,9 +1324,9 @@
         <f>2.75/100</f>
         <v>2.75E-2</v>
       </c>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -1301,12 +1342,12 @@
         <f t="shared" si="0"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="F18" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -1322,12 +1363,12 @@
         <f t="shared" si="0"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="F19" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -1343,158 +1384,158 @@
         <f t="shared" si="0"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="F20" s="42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="51">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="29">
         <v>0</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F21" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="51">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="29">
         <v>0</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F22" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F22" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="51">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="29">
         <v>0</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F23" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34">
+      <c r="F23" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31">
         <v>42</v>
       </c>
-      <c r="J23" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J23" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="51">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="29">
         <v>0</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F24" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="51">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="29">
         <v>0</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F25" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="F25" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="25">
         <f>ROUND(0.15*I23,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="51">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="29">
         <v>0</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F26" s="43">
+      <c r="F26" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1503,200 +1544,200 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="51">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="26">
         <v>0</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="51">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="26">
         <v>19860</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="41">
         <f t="shared" si="1"/>
         <v>47349.717921805815</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="37">
         <f>AVERAGE(E58:E62)</f>
         <v>54408.631895356535</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="51">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="26">
         <v>20853</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="41">
         <f t="shared" si="1"/>
         <v>48386.573058779657</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="51">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="26">
         <v>22243</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="F30" s="44">
+      <c r="F30" s="41">
         <f t="shared" si="1"/>
         <v>50230.540655002631</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="51">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="26">
         <v>22789</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="41">
         <f t="shared" si="1"/>
         <v>50086.182163626858</v>
       </c>
-      <c r="G31" s="40">
+      <c r="G31" s="37">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
         <v>11997.103633145551</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
-    </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="51">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="26">
         <v>24825</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="41">
         <f t="shared" si="1"/>
         <v>53100.680524764917</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="51">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="26">
         <v>24855</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="41">
         <f t="shared" si="1"/>
         <v>51741.946989237338</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="51">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="28">
         <v>0</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1706,77 +1747,77 @@
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="48"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="51">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="28">
         <v>0</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="48"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="51">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="28">
         <v>0</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="48"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="51">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="28">
         <v>0</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1786,77 +1827,77 @@
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="48"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="51">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="28">
         <v>1302</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="42">
         <f t="shared" si="1"/>
         <v>2366.6325353695747</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="48"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="51">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="28">
         <v>1492</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="42">
         <f t="shared" si="1"/>
         <v>2639.4098861728016</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="51">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="28">
         <v>0</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1868,23 +1909,23 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="51">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="26">
         <v>31155</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="F41" s="44">
+      <c r="F41" s="41">
         <f t="shared" si="1"/>
         <v>52203.799189353202</v>
       </c>
@@ -1893,50 +1934,50 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="51">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="26">
         <v>32352</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="F42" s="44">
+      <c r="F42" s="41">
         <f t="shared" si="1"/>
         <v>52758.648055506295</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="51">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="26">
         <v>32769</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="F43" s="44">
+      <c r="F43" s="41">
         <f t="shared" si="1"/>
         <v>52008.446568611624</v>
       </c>
@@ -1944,409 +1985,409 @@
         <f>1-G40</f>
         <v>0.7</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="39"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="51">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="26">
         <v>34546</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="41">
         <f t="shared" si="1"/>
         <v>53361.328314919236</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>B44+1</f>
         <v>2002</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="51">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="26">
         <v>33921</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="F45" s="44">
+      <c r="F45" s="41">
         <f t="shared" si="1"/>
         <v>50993.600768153141</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="51">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="26">
         <v>34546</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F46" s="41">
         <f t="shared" si="1"/>
         <v>50543.227487328848</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="51">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="26">
         <v>36403</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="F47" s="44">
+      <c r="F47" s="41">
         <f t="shared" si="1"/>
         <v>51834.694971287114</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="51">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="26">
         <v>37337</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="41">
         <f t="shared" si="1"/>
         <v>51741.731832158875</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="51">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="26">
         <v>37883</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="41">
         <f t="shared" si="1"/>
         <v>51093.314205849943</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="51">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="26">
         <v>38767</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="F50" s="44">
+      <c r="F50" s="41">
         <f t="shared" si="1"/>
         <v>50886.206283058484</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="51">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="26">
         <v>39621</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="0"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="F51" s="44">
+      <c r="F51" s="41">
         <f t="shared" si="1"/>
         <v>50615.261146019737</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="51">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="26">
         <v>40137</v>
       </c>
       <c r="E52" s="21">
         <f t="shared" si="0"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="41">
         <f t="shared" si="1"/>
         <v>49902.135056123778</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="51">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="26">
         <v>40812</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="0"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="F53" s="44">
+      <c r="F53" s="41">
         <f t="shared" si="1"/>
         <v>49383.317997428727</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="51">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="26">
         <v>41577</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" si="0"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="41">
         <f t="shared" si="1"/>
         <v>48962.513825285729</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="51">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="26">
         <v>42292</v>
       </c>
       <c r="E55" s="21">
         <f t="shared" si="0"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="41">
         <f t="shared" si="1"/>
         <v>48471.554808113106</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="51">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="26">
         <v>42699</v>
       </c>
       <c r="E56" s="21">
         <f t="shared" si="0"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="F56" s="44">
+      <c r="F56" s="41">
         <f t="shared" si="1"/>
         <v>47628.247380144967</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="51">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="26">
         <v>43811</v>
       </c>
       <c r="E57" s="21">
         <f t="shared" si="0"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F57" s="41">
         <f t="shared" si="1"/>
         <v>47560.69937583297</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="51">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="26">
         <v>44665</v>
       </c>
       <c r="E58" s="21">
         <f t="shared" si="0"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="41">
         <f t="shared" si="1"/>
         <v>47190.064813830199</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="51">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="26">
         <v>45539</v>
       </c>
       <c r="E59" s="21">
         <f t="shared" si="0"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="F59" s="44">
+      <c r="F59" s="41">
         <f t="shared" si="1"/>
         <v>46825.766438218518</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="51">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="26">
         <v>46323</v>
       </c>
       <c r="E60" s="21">
         <f>E61/(1+$G$17)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="F60" s="44">
+      <c r="F60" s="41">
         <f t="shared" si="1"/>
         <v>46357.099197561605</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="51">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="26">
         <v>46671</v>
       </c>
       <c r="E61" s="21">
         <f>E62/(1+$G$17)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="F61" s="44">
+      <c r="F61" s="41">
         <f t="shared" si="1"/>
         <v>45455.333690171778</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="51">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="26">
         <v>47465</v>
       </c>
       <c r="E62" s="21">
         <v>57400</v>
       </c>
-      <c r="F62" s="44">
+      <c r="F62" s="41">
         <f t="shared" si="1"/>
         <v>44991.388726709025</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -2360,9 +2401,9 @@
         <f>(1+$G$17)*E62</f>
         <v>58978.500000000007</v>
       </c>
-      <c r="F63" s="46"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F63" s="43"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -2376,9 +2417,9 @@
         <f t="shared" ref="E64:E69" si="4">1.0275*E63</f>
         <v>60600.40875000001</v>
       </c>
-      <c r="F64" s="46"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F64" s="43"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>B64+1</f>
         <v>2022</v>
@@ -2392,9 +2433,9 @@
         <f t="shared" si="4"/>
         <v>62266.919990625014</v>
       </c>
-      <c r="F65" s="46"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="43"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -2408,9 +2449,9 @@
         <f t="shared" si="4"/>
         <v>63979.260290367209</v>
       </c>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F66" s="43"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -2424,9 +2465,9 @@
         <f t="shared" si="4"/>
         <v>65738.689948352316</v>
       </c>
-      <c r="F67" s="46"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F67" s="43"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -2440,9 +2481,9 @@
         <f t="shared" si="4"/>
         <v>67546.503921932002</v>
       </c>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <f t="shared" ref="B69:C69" si="5">B68+1</f>
         <v>2026</v>
@@ -2456,7 +2497,7 @@
         <f t="shared" si="4"/>
         <v>69404.032779785135</v>
       </c>
-      <c r="F69" s="47"/>
+      <c r="F69" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2464,30 +2505,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C21" sqref="C21:C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2500,93 +2542,1484 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3:E60" si="0">E4/(1+$G$3)</f>
+        <v>11582.008786282422</v>
+      </c>
+      <c r="F3" s="39">
+        <f>(D3/E3)*$G$28</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f>2.75/100</f>
+        <v>2.75E-2</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>1961</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>11900.51402790519</v>
+      </c>
+      <c r="F4" s="39">
+        <f t="shared" ref="F4:F62" si="1">(D4/E4)*$G$28</f>
+        <v>0</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B68" si="2">B4+1</f>
+        <v>1962</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C68" si="3">C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>12227.778163672583</v>
+      </c>
+      <c r="F5" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J5" s="16">
+        <f>'QUESTION 1'!L5</f>
+        <v>8397.9725432018859</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>1963</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>12564.04206317358</v>
+      </c>
+      <c r="F6" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="16">
+        <v>7217</v>
+      </c>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>1964</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>12909.553219910855</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J7" s="16">
+        <v>10780</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>1965</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>13264.565933458405</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>1966</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>13629.341496628513</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>1967</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>14004.148387785797</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="18">
+        <f>SUM(J4:J9)</f>
+        <v>26394.972543201886</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="2"/>
+        <v>1968</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>14389.262468449908</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17">
+        <f>J10/D62</f>
+        <v>0.55609338550936238</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <f t="shared" si="2"/>
+        <v>1969</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>14784.967186332282</v>
+      </c>
+      <c r="F12" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>1970</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>15191.55378395642</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>1971</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="47">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>15609.321513015224</v>
+      </c>
+      <c r="F14" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>1972</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>16038.577854623143</v>
+      </c>
+      <c r="F15" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>1973</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
+        <v>16479.638745625281</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>1974</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="0"/>
+        <v>16932.828811129977</v>
+      </c>
+      <c r="F17" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>1975</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
+        <v>17398.481603436052</v>
+      </c>
+      <c r="F18" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
+        <v>1976</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>17876.939847530546</v>
+      </c>
+      <c r="F19" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>1977</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="47">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
+        <v>18368.555693337639</v>
+      </c>
+      <c r="F20" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>1978</v>
+      </c>
+      <c r="C21" s="51">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="47">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>18873.690974904424</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="2"/>
+        <v>1979</v>
+      </c>
+      <c r="C22" s="51">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="47">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
+        <v>19392.717476714297</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>1980</v>
+      </c>
+      <c r="C23" s="51">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="47">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>19926.017207323941</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>1981</v>
+      </c>
+      <c r="C24" s="51">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="47">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>20473.982680525351</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>1982</v>
+      </c>
+      <c r="C25" s="51">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="47">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
+        <v>21037.017204239801</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="2"/>
+        <v>1983</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="47">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="0"/>
+        <v>21615.535177356396</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="2"/>
+        <v>1984</v>
+      </c>
+      <c r="C27" s="51">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="47">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="0"/>
+        <v>22209.962394733699</v>
+      </c>
+      <c r="F27" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="2"/>
+        <v>1985</v>
+      </c>
+      <c r="C28" s="51">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="47">
+        <v>19860</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="0"/>
+        <v>22820.736360588879</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="2"/>
+        <v>1986</v>
+      </c>
+      <c r="C29" s="51">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="47">
+        <v>20853</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="0"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="2"/>
+        <v>1987</v>
+      </c>
+      <c r="C30" s="51">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="47">
+        <v>22243</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="0"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="F30" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="2"/>
+        <v>1988</v>
+      </c>
+      <c r="C31" s="51">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="47">
+        <v>22789</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="0"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="2"/>
+        <v>1989</v>
+      </c>
+      <c r="C32" s="51">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="47">
+        <v>24825</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="0"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="2"/>
+        <v>1990</v>
+      </c>
+      <c r="C33" s="51">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="47">
+        <v>24855</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="0"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="F33" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="2"/>
+        <v>1991</v>
+      </c>
+      <c r="C34" s="51">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="47">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="0"/>
+        <v>26854.72052407479</v>
+      </c>
+      <c r="F34" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="2"/>
+        <v>1992</v>
+      </c>
+      <c r="C35" s="51">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="47">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="0"/>
+        <v>27593.225338486849</v>
+      </c>
+      <c r="F35" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="2"/>
+        <v>1993</v>
+      </c>
+      <c r="C36" s="51">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="0"/>
+        <v>28352.039035295238</v>
+      </c>
+      <c r="F36" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="2"/>
+        <v>1994</v>
+      </c>
+      <c r="C37" s="51">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" si="0"/>
+        <v>29131.720108765858</v>
+      </c>
+      <c r="F37" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="2"/>
+        <v>1995</v>
+      </c>
+      <c r="C38" s="51">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="47">
+        <v>1302</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="0"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="F38" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f t="shared" si="2"/>
+        <v>1996</v>
+      </c>
+      <c r="C39" s="51">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1492</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" si="0"/>
+        <v>30755.995578080237</v>
+      </c>
+      <c r="F39" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f t="shared" si="2"/>
+        <v>1997</v>
+      </c>
+      <c r="C40" s="51">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="0"/>
+        <v>31601.785456477446</v>
+      </c>
+      <c r="F40" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="C41" s="51">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="47">
+        <v>31155</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="0"/>
+        <v>32470.834556530579</v>
+      </c>
+      <c r="F41" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="C42" s="51">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="D42" s="47">
+        <v>32352</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="0"/>
+        <v>33363.782506835174</v>
+      </c>
+      <c r="F42" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C43" s="51">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="D43" s="47">
+        <v>32769</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" si="0"/>
+        <v>34281.286525773146</v>
+      </c>
+      <c r="F43" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+      <c r="C44" s="51">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="47">
+        <v>34546</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="0"/>
+        <v>35224.021905231908</v>
+      </c>
+      <c r="F44" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C45" s="51">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="47">
+        <v>33921</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="0"/>
+        <v>36192.682507625788</v>
+      </c>
+      <c r="F45" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <f t="shared" si="2"/>
+        <v>2003</v>
+      </c>
+      <c r="C46" s="51">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="47">
+        <v>34546</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="0"/>
+        <v>37187.981276585502</v>
+      </c>
+      <c r="F46" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <f t="shared" si="2"/>
+        <v>2004</v>
+      </c>
+      <c r="C47" s="51">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D47" s="47">
+        <v>36403</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="0"/>
+        <v>38210.650761691606</v>
+      </c>
+      <c r="F47" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f t="shared" si="2"/>
+        <v>2005</v>
+      </c>
+      <c r="C48" s="51">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="47">
+        <v>37337</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="0"/>
+        <v>39261.443657638127</v>
+      </c>
+      <c r="F48" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <f t="shared" si="2"/>
+        <v>2006</v>
+      </c>
+      <c r="C49" s="51">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="47">
+        <v>37883</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="0"/>
+        <v>40341.133358223182</v>
+      </c>
+      <c r="F49" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <f t="shared" si="2"/>
+        <v>2007</v>
+      </c>
+      <c r="C50" s="51">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="47">
+        <v>38767</v>
+      </c>
+      <c r="E50" s="21">
+        <f t="shared" si="0"/>
+        <v>41450.514525574319</v>
+      </c>
+      <c r="F50" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <f t="shared" si="2"/>
+        <v>2008</v>
+      </c>
+      <c r="C51" s="51">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="D51" s="47">
+        <v>39621</v>
+      </c>
+      <c r="E51" s="21">
+        <f t="shared" si="0"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="F51" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f t="shared" si="2"/>
+        <v>2009</v>
+      </c>
+      <c r="C52" s="51">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="47">
+        <v>40137</v>
+      </c>
+      <c r="E52" s="21">
+        <f t="shared" si="0"/>
+        <v>43761.639776090873</v>
+      </c>
+      <c r="F52" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <f t="shared" si="2"/>
+        <v>2010</v>
+      </c>
+      <c r="C53" s="51">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="D53" s="47">
+        <v>40812</v>
+      </c>
+      <c r="E53" s="21">
+        <f t="shared" si="0"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="F53" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" si="2"/>
+        <v>2011</v>
+      </c>
+      <c r="C54" s="51">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="D54" s="47">
+        <v>41577</v>
+      </c>
+      <c r="E54" s="21">
+        <f t="shared" si="0"/>
+        <v>46201.624703856542</v>
+      </c>
+      <c r="F54" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C55" s="51">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="D55" s="47">
+        <v>42292</v>
+      </c>
+      <c r="E55" s="21">
+        <f t="shared" si="0"/>
+        <v>47472.169383212604</v>
+      </c>
+      <c r="F55" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <f t="shared" si="2"/>
+        <v>2013</v>
+      </c>
+      <c r="C56" s="51">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="D56" s="47">
+        <v>42699</v>
+      </c>
+      <c r="E56" s="21">
+        <f t="shared" si="0"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="F56" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <f t="shared" si="2"/>
+        <v>2014</v>
+      </c>
+      <c r="C57" s="51">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="D57" s="47">
+        <v>43811</v>
+      </c>
+      <c r="E57" s="21">
+        <f t="shared" si="0"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="F57" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="C58" s="51">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="D58" s="47">
+        <v>44665</v>
+      </c>
+      <c r="E58" s="21">
+        <f t="shared" si="0"/>
+        <v>51497.313114388468</v>
+      </c>
+      <c r="F58" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C59" s="51">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="D59" s="47">
+        <v>45539</v>
+      </c>
+      <c r="E59" s="21">
+        <f t="shared" si="0"/>
+        <v>52913.489225034151</v>
+      </c>
+      <c r="F59" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="C60" s="51">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="D60" s="47">
+        <v>46323</v>
+      </c>
+      <c r="E60" s="21">
+        <f t="shared" si="0"/>
+        <v>54368.610178722593</v>
+      </c>
+      <c r="F60" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="C61" s="51">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="D61" s="47">
+        <v>46671</v>
+      </c>
+      <c r="E61" s="21">
+        <f>E62/(1+$G$3)</f>
+        <v>55863.746958637465</v>
+      </c>
+      <c r="F61" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <f t="shared" si="2"/>
+        <v>2019</v>
+      </c>
+      <c r="C62" s="51">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="D62" s="47">
+        <v>47465</v>
+      </c>
+      <c r="E62" s="21">
+        <v>57400</v>
+      </c>
+      <c r="F62" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="D63" s="48"/>
+      <c r="E63" s="21">
+        <f>E62*(1+$G$3)</f>
+        <v>58978.500000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="E64" s="21">
+        <f t="shared" ref="E64:E70" si="4">E63*(1+$G$3)</f>
+        <v>60600.40875000001</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="E65" s="21">
+        <f t="shared" si="4"/>
+        <v>62266.919990625014</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <f t="shared" si="2"/>
+        <v>2023</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="E66" s="21">
+        <f t="shared" si="4"/>
+        <v>63979.260290367209</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <f t="shared" si="2"/>
+        <v>2024</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E67" s="21">
+        <f t="shared" si="4"/>
+        <v>65738.689948352316</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="E68" s="21">
+        <f t="shared" si="4"/>
+        <v>67546.503921932002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <f t="shared" ref="B69:B70" si="5">B68+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:C70" si="6">C68+1</f>
+        <v>66</v>
+      </c>
+      <c r="E69" s="21">
+        <f t="shared" si="4"/>
+        <v>69404.032779785135</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <f t="shared" si="5"/>
+        <v>2027</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="E70" s="21">
+        <f t="shared" si="4"/>
+        <v>71312.643681229238</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:Q70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="6"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="1"/>
+    <col min="13" max="13" width="13.21875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" style="1"/>
+    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2599,95 +4032,1633 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1960</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
+        <f t="shared" ref="E3:E60" si="0">E4/(1+$G$3)</f>
+        <v>11582.008786282422</v>
+      </c>
+      <c r="G3" s="1">
+        <f>2.75/100</f>
+        <v>2.75E-2</v>
+      </c>
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="22"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>1961</v>
+      </c>
+      <c r="C4" s="4">
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>11900.51402790519</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="L4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B68" si="1">B4+1</f>
+        <v>1962</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:C68" si="2">C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <f t="shared" si="0"/>
+        <v>12227.778163672583</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="L5" s="26">
-        <v>613.53</v>
-      </c>
-      <c r="M5" s="27">
-        <f>L5*(1+L11)^4</f>
-        <v>613.53</v>
-      </c>
-      <c r="N5" s="27">
-        <f>M5*(1+L11)^4</f>
-        <v>613.53</v>
-      </c>
-      <c r="O5" s="28">
-        <f>N5*(1+L11)^4</f>
-        <v>613.53</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J5" s="16">
+        <f>G31</f>
+        <v>14026.309838889361</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="54">
+        <v>10780</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="25"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <f t="shared" si="1"/>
+        <v>1963</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <f t="shared" si="0"/>
+        <v>12564.04206317358</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J6" s="16">
+        <v>7217</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="25"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>1964</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <f t="shared" si="0"/>
+        <v>12909.553219910855</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J7" s="16">
+        <f>M16</f>
+        <v>7140</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="30">
+        <v>3500</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="25"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>1965</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" si="0"/>
+        <v>13264.565933458405</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>1966</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>13629.341496628513</v>
+      </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>1967</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <f t="shared" si="0"/>
+        <v>14004.148387785797</v>
+      </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="18">
+        <f>SUM(J4:J9)</f>
+        <v>28383.309838889363</v>
+      </c>
+      <c r="M10" s="55">
+        <f>M5-N7</f>
+        <v>7280</v>
+      </c>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>1968</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <f t="shared" si="0"/>
+        <v>14389.262468449908</v>
+      </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="17"/>
+      <c r="J11" s="17">
+        <f>J10/D67</f>
+        <v>0.5221321075141454</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
+        <v>1969</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <f t="shared" si="0"/>
+        <v>14784.967186332282</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <f t="shared" si="1"/>
+        <v>1970</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <f t="shared" si="0"/>
+        <v>15191.55378395642</v>
+      </c>
+      <c r="M13" s="55">
+        <f>M10/2</f>
+        <v>3640</v>
+      </c>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <f t="shared" si="1"/>
+        <v>1971</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="47">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <f t="shared" si="0"/>
+        <v>15609.321513015224</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <f t="shared" si="1"/>
+        <v>1972</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="47">
+        <v>0</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>16038.577854623143</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" si="1"/>
+        <v>1973</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="21">
+        <f t="shared" si="0"/>
+        <v>16479.638745625281</v>
+      </c>
+      <c r="M16" s="56">
+        <f>M5-M13</f>
+        <v>7140</v>
+      </c>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="1"/>
+        <v>1974</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="21">
+        <f t="shared" si="0"/>
+        <v>16932.828811129977</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="1"/>
+        <v>1975</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D18" s="47">
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
+        <v>17398.481603436052</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="1"/>
+        <v>1976</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
+        <v>17876.939847530546</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="1"/>
+        <v>1977</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D20" s="47">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
+        <v>18368.555693337639</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="1"/>
+        <v>1978</v>
+      </c>
+      <c r="C21" s="51">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
+        <v>18873.690974904424</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" ref="F21:F67" si="3">(D21/E21)*$G$28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="1"/>
+        <v>1979</v>
+      </c>
+      <c r="C22" s="51">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D22" s="29">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
+        <v>19392.717476714297</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="1"/>
+        <v>1980</v>
+      </c>
+      <c r="C23" s="51">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
+        <v>19926.017207323941</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31">
+        <v>47</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="1"/>
+        <v>1981</v>
+      </c>
+      <c r="C24" s="51">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
+        <v>20473.982680525351</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="1"/>
+        <v>1982</v>
+      </c>
+      <c r="C25" s="51">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
+        <v>21037.017204239801</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="25">
+        <f>ROUND(0.15*I23,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="1"/>
+        <v>1983</v>
+      </c>
+      <c r="C26" s="51">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="0"/>
+        <v>21615.535177356396</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="1"/>
+        <v>1984</v>
+      </c>
+      <c r="C27" s="51">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D27" s="53">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <f t="shared" si="0"/>
+        <v>22209.962394733699</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>1985</v>
+      </c>
+      <c r="C28" s="51">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D28" s="26">
+        <v>19860</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" si="0"/>
+        <v>22820.736360588879</v>
+      </c>
+      <c r="F28" s="41">
+        <f t="shared" si="3"/>
+        <v>54228.369784033675</v>
+      </c>
+      <c r="G28" s="37">
+        <f>AVERAGE(E63:E67)</f>
+        <v>62312.755795868907</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>1986</v>
+      </c>
+      <c r="C29" s="51">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D29" s="26">
+        <v>20853</v>
+      </c>
+      <c r="E29" s="21">
+        <f t="shared" si="0"/>
+        <v>23448.306610505075</v>
+      </c>
+      <c r="F29" s="41">
+        <f t="shared" si="3"/>
+        <v>55415.852334049006</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>1987</v>
+      </c>
+      <c r="C30" s="51">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D30" s="26">
+        <v>22243</v>
+      </c>
+      <c r="E30" s="21">
+        <f t="shared" si="0"/>
+        <v>24093.135042293965</v>
+      </c>
+      <c r="F30" s="41">
+        <f t="shared" si="3"/>
+        <v>57527.699269291341</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>1988</v>
+      </c>
+      <c r="C31" s="51">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D31" s="26">
+        <v>22789</v>
+      </c>
+      <c r="E31" s="21">
+        <f t="shared" si="0"/>
+        <v>24755.696255957049</v>
+      </c>
+      <c r="F31" s="41">
+        <f t="shared" si="3"/>
+        <v>57362.369337131691</v>
+      </c>
+      <c r="G31" s="37">
+        <f>0.25*AVERAGE(F28:F33,F41:F67)</f>
+        <v>14026.309838889361</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>1989</v>
+      </c>
+      <c r="C32" s="51">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D32" s="26">
+        <v>24825</v>
+      </c>
+      <c r="E32" s="21">
+        <f t="shared" si="0"/>
+        <v>25436.47790299587</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="3"/>
+        <v>60814.793955819347</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="C33" s="51">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="26">
+        <v>24855</v>
+      </c>
+      <c r="E33" s="21">
+        <f t="shared" si="0"/>
+        <v>26135.981045328259</v>
+      </c>
+      <c r="F33" s="41">
+        <f t="shared" si="3"/>
+        <v>59258.67265591558</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="C34" s="51">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <f t="shared" si="0"/>
+        <v>26854.72052407479</v>
+      </c>
+      <c r="F34" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="C35" s="51">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D35" s="28">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <f t="shared" si="0"/>
+        <v>27593.225338486849</v>
+      </c>
+      <c r="F35" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="1"/>
+        <v>1993</v>
+      </c>
+      <c r="C36" s="51">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D36" s="28">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="0"/>
+        <v>28352.039035295238</v>
+      </c>
+      <c r="F36" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>1994</v>
+      </c>
+      <c r="C37" s="51">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D37" s="28">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <f t="shared" si="0"/>
+        <v>29131.720108765858</v>
+      </c>
+      <c r="F37" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <f>12*G34</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>1995</v>
+      </c>
+      <c r="C38" s="51">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="D38" s="28">
+        <v>1302</v>
+      </c>
+      <c r="E38" s="21">
+        <f t="shared" si="0"/>
+        <v>29932.842411756919</v>
+      </c>
+      <c r="F38" s="42">
+        <f t="shared" si="3"/>
+        <v>2710.4411579153902</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>1996</v>
+      </c>
+      <c r="C39" s="51">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="D39" s="28">
+        <v>1492</v>
+      </c>
+      <c r="E39" s="21">
+        <f t="shared" si="0"/>
+        <v>30755.995578080237</v>
+      </c>
+      <c r="F39" s="42">
+        <f t="shared" si="3"/>
+        <v>3022.8457866503427</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>1997</v>
+      </c>
+      <c r="C40" s="51">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="D40" s="28">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <f t="shared" si="0"/>
+        <v>31601.785456477446</v>
+      </c>
+      <c r="F40" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <f>5*G37</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" si="1"/>
+        <v>1998</v>
+      </c>
+      <c r="C41" s="51">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D41" s="26">
+        <v>31155</v>
+      </c>
+      <c r="E41" s="21">
+        <f t="shared" si="0"/>
+        <v>32470.834556530579</v>
+      </c>
+      <c r="F41" s="41">
+        <f t="shared" si="3"/>
+        <v>59787.619669598178</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+      <c r="C42" s="51">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="D42" s="26">
+        <v>32352</v>
+      </c>
+      <c r="E42" s="21">
+        <f t="shared" si="0"/>
+        <v>33363.782506835174</v>
+      </c>
+      <c r="F42" s="41">
+        <f t="shared" si="3"/>
+        <v>60423.073285978549</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="C43" s="51">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="D43" s="26">
+        <v>32769</v>
+      </c>
+      <c r="E43" s="21">
+        <f t="shared" si="0"/>
+        <v>34281.286525773146</v>
+      </c>
+      <c r="F43" s="41">
+        <f t="shared" si="3"/>
+        <v>59563.887520372948</v>
+      </c>
+      <c r="G43" s="13">
+        <f>1-G40</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+      <c r="C44" s="51">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D44" s="26">
+        <v>34546</v>
+      </c>
+      <c r="E44" s="21">
+        <f t="shared" si="0"/>
+        <v>35224.021905231908</v>
+      </c>
+      <c r="F44" s="41">
+        <f t="shared" si="3"/>
+        <v>61113.306922068092</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+      <c r="C45" s="51">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="D45" s="26">
+        <v>33921</v>
+      </c>
+      <c r="E45" s="21">
+        <f t="shared" si="0"/>
+        <v>36192.682507625788</v>
+      </c>
+      <c r="F45" s="41">
+        <f t="shared" si="3"/>
+        <v>58401.611676788838</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+      <c r="C46" s="51">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="D46" s="26">
+        <v>34546</v>
+      </c>
+      <c r="E46" s="21">
+        <f t="shared" si="0"/>
+        <v>37187.981276585502</v>
+      </c>
+      <c r="F46" s="41">
+        <f t="shared" si="3"/>
+        <v>57885.81116338935</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+      <c r="C47" s="51">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="D47" s="26">
+        <v>36403</v>
+      </c>
+      <c r="E47" s="21">
+        <f t="shared" si="0"/>
+        <v>38210.650761691606</v>
+      </c>
+      <c r="F47" s="41">
+        <f t="shared" si="3"/>
+        <v>59364.894447471423</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f t="shared" si="1"/>
+        <v>2005</v>
+      </c>
+      <c r="C48" s="51">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="D48" s="26">
+        <v>37337</v>
+      </c>
+      <c r="E48" s="21">
+        <f t="shared" si="0"/>
+        <v>39261.443657638127</v>
+      </c>
+      <c r="F48" s="41">
+        <f t="shared" si="3"/>
+        <v>59258.426242248839</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <f t="shared" si="1"/>
+        <v>2006</v>
+      </c>
+      <c r="C49" s="51">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="26">
+        <v>37883</v>
+      </c>
+      <c r="E49" s="21">
+        <f t="shared" si="0"/>
+        <v>40341.133358223182</v>
+      </c>
+      <c r="F49" s="41">
+        <f t="shared" si="3"/>
+        <v>58515.810819026374</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <f t="shared" si="1"/>
+        <v>2007</v>
+      </c>
+      <c r="C50" s="51">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="D50" s="26">
+        <v>38767</v>
+      </c>
+      <c r="E50" s="21">
+        <f t="shared" si="0"/>
+        <v>41450.514525574319</v>
+      </c>
+      <c r="F50" s="41">
+        <f t="shared" si="3"/>
+        <v>58278.615635712173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <f t="shared" si="1"/>
+        <v>2008</v>
+      </c>
+      <c r="C51" s="51">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="D51" s="26">
+        <v>39621</v>
+      </c>
+      <c r="E51" s="21">
+        <f t="shared" si="0"/>
+        <v>42590.403675027614</v>
+      </c>
+      <c r="F51" s="41">
+        <f t="shared" si="3"/>
+        <v>57968.309392562274</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="C52" s="51">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="D52" s="26">
+        <v>40137</v>
+      </c>
+      <c r="E52" s="21">
+        <f t="shared" si="0"/>
+        <v>43761.639776090873</v>
+      </c>
+      <c r="F52" s="41">
+        <f t="shared" si="3"/>
+        <v>57151.585090859298</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <f t="shared" si="1"/>
+        <v>2010</v>
+      </c>
+      <c r="C53" s="51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="D53" s="26">
+        <v>40812</v>
+      </c>
+      <c r="E53" s="21">
+        <f t="shared" si="0"/>
+        <v>44965.084869933373</v>
+      </c>
+      <c r="F53" s="41">
+        <f t="shared" si="3"/>
+        <v>56557.397743098496</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" si="1"/>
+        <v>2011</v>
+      </c>
+      <c r="C54" s="51">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="D54" s="26">
+        <v>41577</v>
+      </c>
+      <c r="E54" s="21">
+        <f t="shared" si="0"/>
+        <v>46201.624703856542</v>
+      </c>
+      <c r="F54" s="41">
+        <f t="shared" si="3"/>
+        <v>56075.46194167895</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="C55" s="51">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="D55" s="26">
+        <v>42292</v>
+      </c>
+      <c r="E55" s="21">
+        <f t="shared" si="0"/>
+        <v>47472.169383212604</v>
+      </c>
+      <c r="F55" s="41">
+        <f t="shared" si="3"/>
+        <v>55513.179666291158</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="C56" s="51">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="D56" s="26">
+        <v>42699</v>
+      </c>
+      <c r="E56" s="21">
+        <f t="shared" si="0"/>
+        <v>48777.654041250957</v>
+      </c>
+      <c r="F56" s="41">
+        <f t="shared" si="3"/>
+        <v>54547.362148201624</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="C57" s="51">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="D57" s="26">
+        <v>43811</v>
+      </c>
+      <c r="E57" s="21">
+        <f t="shared" si="0"/>
+        <v>50119.039527385365</v>
+      </c>
+      <c r="F57" s="41">
+        <f t="shared" si="3"/>
+        <v>54470.00121941945</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="C58" s="51">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="D58" s="26">
+        <v>44665</v>
+      </c>
+      <c r="E58" s="21">
+        <f t="shared" si="0"/>
+        <v>51497.313114388468</v>
+      </c>
+      <c r="F58" s="41">
+        <f t="shared" si="3"/>
+        <v>54045.523335174788</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="C59" s="51">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D59" s="26">
+        <v>45539</v>
+      </c>
+      <c r="E59" s="21">
+        <f t="shared" si="0"/>
+        <v>52913.489225034151</v>
+      </c>
+      <c r="F59" s="41">
+        <f t="shared" si="3"/>
+        <v>53628.302116306768</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="C60" s="51">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="D60" s="26">
+        <v>46323</v>
+      </c>
+      <c r="E60" s="21">
+        <f t="shared" si="0"/>
+        <v>54368.610178722593</v>
+      </c>
+      <c r="F60" s="41">
+        <f t="shared" si="3"/>
+        <v>53091.550018353897</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="C61" s="51">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="D61" s="26">
+        <v>46671</v>
+      </c>
+      <c r="E61" s="21">
+        <f>E62/(1+$G$3)</f>
+        <v>55863.746958637465</v>
+      </c>
+      <c r="F61" s="41">
+        <f t="shared" si="3"/>
+        <v>52058.782020158455</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="C62" s="51">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="D62" s="26">
+        <v>47465</v>
+      </c>
+      <c r="E62" s="21">
+        <v>57400</v>
+      </c>
+      <c r="F62" s="41">
+        <f t="shared" si="3"/>
+        <v>51527.438220399257</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <f t="shared" si="1"/>
+        <v>2020</v>
+      </c>
+      <c r="C63" s="51">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="D63" s="26">
+        <f>D62*(1+$G$3)</f>
+        <v>48770.287500000006</v>
+      </c>
+      <c r="E63" s="21">
+        <f>E62*(1+$G$3)</f>
+        <v>58978.500000000007</v>
+      </c>
+      <c r="F63" s="41">
+        <f>(D63/E63)*$G$28</f>
+        <v>51527.438220399257</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <f t="shared" si="1"/>
+        <v>2021</v>
+      </c>
+      <c r="C64" s="51">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="D64" s="26">
+        <f t="shared" ref="D64:D67" si="4">D63*(1+$G$3)</f>
+        <v>50111.47040625001</v>
+      </c>
+      <c r="E64" s="21">
+        <f t="shared" ref="E64:E70" si="5">E63*(1+$G$3)</f>
+        <v>60600.40875000001</v>
+      </c>
+      <c r="F64" s="41">
+        <f>(D64/E64)*$G$28</f>
+        <v>51527.438220399257</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="C65" s="51">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="D65" s="26">
+        <f t="shared" si="4"/>
+        <v>51489.535842421887</v>
+      </c>
+      <c r="E65" s="21">
+        <f t="shared" si="5"/>
+        <v>62266.919990625014</v>
+      </c>
+      <c r="F65" s="41">
+        <f>(D65/E65)*$G$28</f>
+        <v>51527.438220399257</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="C66" s="51">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D66" s="26">
+        <f t="shared" si="4"/>
+        <v>52905.498078088494</v>
+      </c>
+      <c r="E66" s="21">
+        <f t="shared" si="5"/>
+        <v>63979.260290367209</v>
+      </c>
+      <c r="F66" s="41">
+        <f t="shared" si="3"/>
+        <v>51527.438220399257</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="2">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="C67" s="51">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D67" s="26">
+        <f t="shared" si="4"/>
+        <v>54360.399275235934</v>
+      </c>
+      <c r="E67" s="21">
+        <f t="shared" si="5"/>
+        <v>65738.689948352316</v>
+      </c>
+      <c r="F67" s="41">
+        <f t="shared" si="3"/>
+        <v>51527.438220399257</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="2">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="C68" s="52">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="D68" s="48"/>
+      <c r="E68" s="21">
+        <f t="shared" si="5"/>
+        <v>67546.503921932002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="2">
+        <f t="shared" ref="B69:B70" si="6">B68+1</f>
+        <v>2026</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:C70" si="7">C68+1</f>
+        <v>66</v>
+      </c>
+      <c r="E69" s="21">
+        <f t="shared" si="5"/>
+        <v>69404.032779785135</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="2">
+        <f t="shared" si="6"/>
+        <v>2027</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="E70" s="21">
+        <f t="shared" si="5"/>
+        <v>71312.643681229238</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2695,30 +5666,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="5" max="5" width="10.77734375" style="6"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2735,54 +5706,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>

--- a/Gabarit-final .xlsx
+++ b/Gabarit-final .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDCB031-411E-4610-A630-A91577DB1422}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E93AB0-D105-43AA-8CAB-B5163AF1344A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Années</t>
   </si>
@@ -149,6 +149,27 @@
   <si>
     <t>La rente de SRG sera donc de :</t>
   </si>
+  <si>
+    <t>Provient du RRQ (N'est donc pas un "salaire")</t>
+  </si>
+  <si>
+    <t>60 ans</t>
+  </si>
+  <si>
+    <t>61 ans</t>
+  </si>
+  <si>
+    <t>62 ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63 ans </t>
+  </si>
+  <si>
+    <t>64 ans</t>
+  </si>
+  <si>
+    <t>65 ans</t>
+  </si>
 </sst>
 </file>
 
@@ -158,7 +179,7 @@
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -194,7 +215,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,6 +243,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,7 +499,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -566,8 +593,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -891,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1005,9 +1035,9 @@
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="59">
         <f>G31*G43</f>
-        <v>8397.9725432018859</v>
+        <v>8038.0594342075183</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1149,7 +1179,7 @@
       </c>
       <c r="L10" s="46">
         <f>SUM(L4:L9)</f>
-        <v>8397.9725432018859</v>
+        <v>8038.0594342075183</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1177,7 +1207,7 @@
       </c>
       <c r="L11" s="17">
         <f>L10/D62</f>
-        <v>0.17692979128203698</v>
+        <v>0.16934708594137823</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -1742,8 +1772,8 @@
         <v>0</v>
       </c>
       <c r="G34" s="12">
-        <f>0.5/100</f>
-        <v>5.0000000000000001E-3</v>
+        <f>0.55/100</f>
+        <v>5.5000000000000005E-3</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
@@ -1823,7 +1853,7 @@
       </c>
       <c r="G37" s="12">
         <f>12*G34</f>
-        <v>0.06</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -1903,7 +1933,7 @@
       </c>
       <c r="G40" s="12">
         <f>5*G37</f>
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -1983,7 +2013,7 @@
       </c>
       <c r="G43" s="13">
         <f>1-G40</f>
-        <v>0.7</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -2508,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:K71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C62"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2629,8 +2659,8 @@
         <v>6</v>
       </c>
       <c r="J5" s="16">
-        <f>'QUESTION 1'!L5</f>
-        <v>8397.9725432018859</v>
+        <f>I68</f>
+        <v>9205.7752078710164</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2767,7 +2797,7 @@
       </c>
       <c r="J10" s="18">
         <f>SUM(J4:J9)</f>
-        <v>26394.972543201886</v>
+        <v>27202.775207871018</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2795,7 +2825,7 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D62</f>
-        <v>0.55609338550936238</v>
+        <v>0.57311229764818328</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2903,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -2924,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -2945,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -2966,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -2987,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
@@ -3008,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
@@ -3029,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
@@ -3046,11 +3076,21 @@
         <v>19926.017207323941</v>
       </c>
       <c r="F23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <f>(D23/E23)*$G$28</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31">
+        <v>42</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
@@ -3067,11 +3107,17 @@
         <v>20473.982680525351</v>
       </c>
       <c r="F24" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <f>(D24/E24)*$G$28</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
@@ -3091,8 +3137,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="25">
+        <f>ROUND(0.15*I23,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
@@ -3112,8 +3167,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
@@ -3133,8 +3192,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
@@ -3152,10 +3217,17 @@
       </c>
       <c r="F28" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47349.717921805815</v>
+      </c>
+      <c r="G28" s="37">
+        <f>AVERAGE(E58:E62)</f>
+        <v>54408.631895356535</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
@@ -3173,10 +3245,10 @@
       </c>
       <c r="F29" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48386.573058779657</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
@@ -3194,10 +3266,15 @@
       </c>
       <c r="F30" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50230.540655002631</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+    </row>
+    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
@@ -3215,10 +3292,16 @@
       </c>
       <c r="F31" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50086.182163626858</v>
+      </c>
+      <c r="G31" s="37">
+        <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
+        <v>11997.103633145551</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
@@ -3236,10 +3319,10 @@
       </c>
       <c r="F32" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>53100.680524764917</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
@@ -3257,10 +3340,16 @@
       </c>
       <c r="F33" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51741.946989237338</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
@@ -3280,8 +3369,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="12">
+        <f>0.55/100</f>
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="45"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
@@ -3301,8 +3397,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="45"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
@@ -3322,8 +3422,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="45"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
@@ -3343,8 +3449,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="12">
+        <f>12*G34</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="45"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
@@ -3362,10 +3475,14 @@
       </c>
       <c r="F38" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2366.6325353695747</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="45"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
@@ -3383,10 +3500,16 @@
       </c>
       <c r="F39" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2639.4098861728016</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
@@ -3406,8 +3529,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="12">
+        <f>5*G37</f>
+        <v>0.33</v>
+      </c>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="25"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
@@ -3425,10 +3555,14 @@
       </c>
       <c r="F41" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>52203.799189353202</v>
+      </c>
+      <c r="G41" s="12"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
@@ -3446,10 +3580,16 @@
       </c>
       <c r="F42" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+        <v>52758.648055506295</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="25"/>
+    </row>
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
@@ -3467,10 +3607,17 @@
       </c>
       <c r="F43" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>52008.446568611624</v>
+      </c>
+      <c r="G43" s="13">
+        <f>1-G40</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
@@ -3488,10 +3635,10 @@
       </c>
       <c r="F44" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>53361.328314919236</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="2"/>
         <v>2002</v>
@@ -3509,10 +3656,10 @@
       </c>
       <c r="F45" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50993.600768153141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
@@ -3530,10 +3677,10 @@
       </c>
       <c r="F46" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50543.227487328848</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
@@ -3551,10 +3698,10 @@
       </c>
       <c r="F47" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51834.694971287114</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
@@ -3572,10 +3719,10 @@
       </c>
       <c r="F48" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51741.731832158875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
@@ -3593,10 +3740,10 @@
       </c>
       <c r="F49" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>51093.314205849943</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
@@ -3614,10 +3761,10 @@
       </c>
       <c r="F50" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50886.206283058484</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
@@ -3635,10 +3782,10 @@
       </c>
       <c r="F51" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+        <v>50615.261146019737</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
@@ -3656,10 +3803,10 @@
       </c>
       <c r="F52" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>49902.135056123778</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
@@ -3677,10 +3824,10 @@
       </c>
       <c r="F53" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+        <v>49383.317997428727</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
@@ -3698,10 +3845,10 @@
       </c>
       <c r="F54" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48962.513825285729</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
@@ -3719,10 +3866,10 @@
       </c>
       <c r="F55" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>48471.554808113106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
@@ -3740,10 +3887,10 @@
       </c>
       <c r="F56" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47628.247380144967</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
@@ -3761,10 +3908,10 @@
       </c>
       <c r="F57" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47560.69937583297</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
@@ -3782,10 +3929,10 @@
       </c>
       <c r="F58" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47190.064813830199</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
@@ -3803,10 +3950,10 @@
       </c>
       <c r="F59" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>46825.766438218518</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
@@ -3823,11 +3970,11 @@
         <v>54368.610178722593</v>
       </c>
       <c r="F60" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+        <f>(D60/E60)*$G$28</f>
+        <v>46357.099197561605</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
@@ -3845,10 +3992,10 @@
       </c>
       <c r="F61" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>45455.333690171778</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -3864,11 +4011,14 @@
         <v>57400</v>
       </c>
       <c r="F62" s="41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <f>(D62/E62)*$G$28</f>
+        <v>44991.388726709025</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -3882,8 +4032,15 @@
         <f>E62*(1+$G$3)</f>
         <v>58978.500000000007</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="58">
+        <f>G31*G43</f>
+        <v>8038.0594342075183</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -3896,8 +4053,15 @@
         <f t="shared" ref="E64:E70" si="4">E63*(1+$G$3)</f>
         <v>60600.40875000001</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="58">
+        <f>I63*(1+$G$3)</f>
+        <v>8259.1060686482251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -3910,8 +4074,15 @@
         <f t="shared" si="4"/>
         <v>62266.919990625014</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="58">
+        <f t="shared" ref="I65:I68" si="5">I64*(1+$G$3)</f>
+        <v>8486.2314855360528</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -3924,8 +4095,15 @@
         <f t="shared" si="4"/>
         <v>63979.260290367209</v>
       </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="58">
+        <f t="shared" si="5"/>
+        <v>8719.6028513882957</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -3938,8 +4116,15 @@
         <f t="shared" si="4"/>
         <v>65738.689948352316</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="58">
+        <f t="shared" si="5"/>
+        <v>8959.3919298014753</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -3952,14 +4137,21 @@
         <f t="shared" si="4"/>
         <v>67546.503921932002</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I68" s="58">
+        <f t="shared" si="5"/>
+        <v>9205.7752078710164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
-        <f t="shared" ref="B69:B70" si="5">B68+1</f>
+        <f t="shared" ref="B69:B70" si="6">B68+1</f>
         <v>2026</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ref="C69:C70" si="6">C68+1</f>
+        <f t="shared" ref="C69:C70" si="7">C68+1</f>
         <v>66</v>
       </c>
       <c r="E69" s="21">
@@ -3967,13 +4159,13 @@
         <v>69404.032779785135</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2027</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="E70" s="21">
@@ -3981,7 +4173,7 @@
         <v>71312.643681229238</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E71" s="21"/>
     </row>
   </sheetData>
@@ -3994,8 +4186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Gabarit-final .xlsx
+++ b/Gabarit-final .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmetivier-dionne/ATCR-TP2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53E93AB0-D105-43AA-8CAB-B5163AF1344A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2000" windowWidth="23260" windowHeight="12580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -18,12 +17,15 @@
     <sheet name="QUESTION 3" sheetId="3" r:id="rId3"/>
     <sheet name="QUESTION 6" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,15 +34,12 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>Années</t>
   </si>
@@ -170,18 +169,45 @@
   <si>
     <t>65 ans</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ici manque indexation??</t>
+  </si>
+  <si>
+    <t>Résultat:</t>
+  </si>
+  <si>
+    <t>IL est considéré comme un revenu non??</t>
+  </si>
+  <si>
+    <t>inflation encore ?</t>
+  </si>
+  <si>
+    <t>ici manque le 1 pour 2$ de revenus?+indexation?</t>
+  </si>
+  <si>
+    <t>avec inflation</t>
+  </si>
+  <si>
+    <t>Considérant le jaune en haut et l'exemption s'applique au salaire (RRQ)</t>
+  </si>
+  <si>
+    <t>tjr avec ce qui est plus haut</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_)\ &quot;$&quot;_ ;_ * \(#,##0\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +237,11 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -499,7 +530,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,7 +612,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,6 +628,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -918,32 +958,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2"/>
-    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.77734375" style="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -963,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -985,7 +1025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -1012,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
@@ -1035,12 +1075,12 @@
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="58">
         <f>G31*G43</f>
         <v>8038.0594342075183</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -1070,7 +1110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1964</v>
@@ -1100,7 +1140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
@@ -1127,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1966</v>
@@ -1154,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1967</v>
@@ -1182,7 +1222,7 @@
         <v>8038.0594342075183</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1968</v>
@@ -1210,7 +1250,7 @@
         <v>0.16934708594137823</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1969</v>
@@ -1235,7 +1275,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
@@ -1260,7 +1300,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>1971</v>
@@ -1285,7 +1325,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>1972</v>
@@ -1306,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>1973</v>
@@ -1330,7 +1370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -1356,7 +1396,7 @@
       </c>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -1377,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -1398,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -1419,12 +1459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1440,12 +1480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -1461,12 +1501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -1492,12 +1532,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -1519,12 +1559,12 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -1549,12 +1589,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -1574,12 +1614,12 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -1601,12 +1641,12 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -1629,12 +1669,12 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -1650,12 +1690,12 @@
         <v>48386.573058779657</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -1676,12 +1716,12 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -1696,19 +1736,19 @@
         <f t="shared" si="1"/>
         <v>50086.182163626858</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="60">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
         <v>11997.103633145551</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -1724,12 +1764,12 @@
         <v>53100.680524764917</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -1744,19 +1784,19 @@
         <f t="shared" si="1"/>
         <v>51741.946989237338</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -1771,7 +1811,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="24">
         <f>0.55/100</f>
         <v>5.5000000000000005E-3</v>
       </c>
@@ -1779,12 +1819,12 @@
       <c r="I34" s="24"/>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -1799,17 +1839,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35" s="12"/>
+      <c r="G35" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1824,19 +1866,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
       <c r="J36" s="45"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="50">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -1851,7 +1893,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="24">
         <f>12*G34</f>
         <v>6.6000000000000003E-2</v>
       </c>
@@ -1859,12 +1901,12 @@
       <c r="I37" s="24"/>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="50">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -1879,17 +1921,17 @@
         <f t="shared" si="1"/>
         <v>2366.6325353695747</v>
       </c>
-      <c r="G38" s="12"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -1904,19 +1946,19 @@
         <f t="shared" si="1"/>
         <v>2639.4098861728016</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -1931,7 +1973,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="24">
         <f>5*G37</f>
         <v>0.33</v>
       </c>
@@ -1939,12 +1981,12 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="50">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -1959,17 +2001,17 @@
         <f t="shared" si="1"/>
         <v>52203.799189353202</v>
       </c>
-      <c r="G41" s="12"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -1984,19 +2026,19 @@
         <f t="shared" si="1"/>
         <v>52758.648055506295</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -2011,7 +2053,7 @@
         <f t="shared" si="1"/>
         <v>52008.446568611624</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="35">
         <f>1-G40</f>
         <v>0.66999999999999993</v>
       </c>
@@ -2019,12 +2061,12 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
@@ -2040,12 +2082,12 @@
         <v>53361.328314919236</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <f>B44+1</f>
         <v>2002</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2061,12 +2103,12 @@
         <v>50993.600768153141</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -2082,12 +2124,12 @@
         <v>50543.227487328848</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -2103,12 +2145,12 @@
         <v>51834.694971287114</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="50">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -2124,12 +2166,12 @@
         <v>51741.731832158875</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
@@ -2145,12 +2187,12 @@
         <v>51093.314205849943</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="50">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -2166,12 +2208,12 @@
         <v>50886.206283058484</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="50">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2187,12 +2229,12 @@
         <v>50615.261146019737</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="50">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -2208,12 +2250,12 @@
         <v>49902.135056123778</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="50">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -2229,12 +2271,12 @@
         <v>49383.317997428727</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="50">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -2250,12 +2292,12 @@
         <v>48962.513825285729</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="50">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
@@ -2271,12 +2313,12 @@
         <v>48471.554808113106</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="50">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
@@ -2292,12 +2334,12 @@
         <v>47628.247380144967</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="50">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -2313,12 +2355,12 @@
         <v>47560.69937583297</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="50">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
@@ -2334,12 +2376,12 @@
         <v>47190.064813830199</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
@@ -2355,12 +2397,12 @@
         <v>46825.766438218518</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="50">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
@@ -2376,12 +2418,12 @@
         <v>46357.099197561605</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="50">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
@@ -2397,12 +2439,12 @@
         <v>45455.333690171778</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="50">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -2417,7 +2459,7 @@
         <v>44991.388726709025</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -2433,7 +2475,7 @@
       </c>
       <c r="F63" s="43"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -2449,7 +2491,7 @@
       </c>
       <c r="F64" s="43"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <f>B64+1</f>
         <v>2022</v>
@@ -2465,7 +2507,7 @@
       </c>
       <c r="F65" s="43"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -2481,7 +2523,7 @@
       </c>
       <c r="F66" s="43"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -2497,7 +2539,7 @@
       </c>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -2513,7 +2555,7 @@
       </c>
       <c r="F68" s="43"/>
     </row>
-    <row r="69" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="2">
         <f t="shared" ref="B69:C69" si="5">B68+1</f>
         <v>2026</v>
@@ -2535,31 +2577,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:K71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2"/>
-    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="5"/>
-    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.77734375" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2572,7 +2614,7 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2582,7 +2624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -2608,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -2625,7 +2667,7 @@
         <v>11900.51402790519</v>
       </c>
       <c r="F4" s="39">
-        <f t="shared" ref="F4:F62" si="1">(D4/E4)*$G$28</f>
+        <f t="shared" ref="F4:F61" si="1">(D4/E4)*$G$28</f>
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2635,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
@@ -2658,12 +2700,12 @@
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="58">
         <f>I68</f>
         <v>9205.7752078710164</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -2686,12 +2728,22 @@
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="58">
         <v>7217</v>
       </c>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="63">
+        <f>7217*(1+$G$3)^6</f>
+        <v>8492.7372614038886</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1964</v>
@@ -2714,11 +2766,21 @@
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="58">
         <v>10780</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="63">
+        <f>10780*(1+$G$3)^6-(9206-3500)/2</f>
+        <v>9832.5629316799113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
@@ -2745,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1966</v>
@@ -2772,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1967</v>
@@ -2795,12 +2857,12 @@
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="46">
         <f>SUM(J4:J9)</f>
         <v>27202.775207871018</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1968</v>
@@ -2828,7 +2890,7 @@
         <v>0.57311229764818328</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1969</v>
@@ -2849,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
@@ -2870,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>1971</v>
@@ -2891,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>1972</v>
@@ -2912,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>1973</v>
@@ -2933,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -2954,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -2975,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -2996,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -3017,12 +3079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -3038,12 +3100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -3059,12 +3121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -3090,12 +3152,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -3117,12 +3179,12 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -3147,12 +3209,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -3172,12 +3234,12 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -3199,12 +3261,12 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -3227,12 +3289,12 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -3248,12 +3310,12 @@
         <v>48386.573058779657</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -3274,12 +3336,12 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -3301,12 +3363,12 @@
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3322,12 +3384,12 @@
         <v>53100.680524764917</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3349,12 +3411,12 @@
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3377,12 +3439,12 @@
       <c r="I34" s="24"/>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3402,12 +3464,12 @@
       <c r="I35" s="24"/>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3429,12 +3491,12 @@
       <c r="I36" s="24"/>
       <c r="J36" s="45"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="50">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3457,12 +3519,12 @@
       <c r="I37" s="24"/>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="50">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3482,12 +3544,12 @@
       <c r="I38" s="24"/>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3509,12 +3571,12 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3537,12 +3599,12 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="50">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -3562,12 +3624,12 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -3589,12 +3651,12 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -3617,12 +3679,12 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
@@ -3638,12 +3700,12 @@
         <v>53361.328314919236</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <f t="shared" si="2"/>
         <v>2002</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -3659,12 +3721,12 @@
         <v>50993.600768153141</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -3680,12 +3742,12 @@
         <v>50543.227487328848</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -3701,12 +3763,12 @@
         <v>51834.694971287114</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="50">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -3722,12 +3784,12 @@
         <v>51741.731832158875</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
@@ -3743,12 +3805,12 @@
         <v>51093.314205849943</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="50">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -3764,12 +3826,12 @@
         <v>50886.206283058484</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="50">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -3785,12 +3847,12 @@
         <v>50615.261146019737</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="50">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -3806,12 +3868,12 @@
         <v>49902.135056123778</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="50">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -3827,12 +3889,12 @@
         <v>49383.317997428727</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="50">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -3848,12 +3910,12 @@
         <v>48962.513825285729</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="50">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
@@ -3869,12 +3931,12 @@
         <v>48471.554808113106</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="50">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
@@ -3890,12 +3952,12 @@
         <v>47628.247380144967</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="50">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -3911,12 +3973,12 @@
         <v>47560.69937583297</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="50">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
@@ -3932,12 +3994,12 @@
         <v>47190.064813830199</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
@@ -3953,12 +4015,12 @@
         <v>46825.766438218518</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="50">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
@@ -3974,12 +4036,12 @@
         <v>46357.099197561605</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="50">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
@@ -3995,12 +4057,12 @@
         <v>45455.333690171778</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="50">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -4014,11 +4076,14 @@
         <f>(D62/E62)*$G$28</f>
         <v>44991.388726709025</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="56" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -4035,12 +4100,12 @@
       <c r="H63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="58">
+      <c r="I63" s="57">
         <f>G31*G43</f>
         <v>8038.0594342075183</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -4056,12 +4121,12 @@
       <c r="H64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="58">
+      <c r="I64" s="57">
         <f>I63*(1+$G$3)</f>
         <v>8259.1060686482251</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -4077,12 +4142,12 @@
       <c r="H65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="58">
+      <c r="I65" s="57">
         <f t="shared" ref="I65:I68" si="5">I64*(1+$G$3)</f>
         <v>8486.2314855360528</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -4098,12 +4163,12 @@
       <c r="H66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="58">
+      <c r="I66" s="57">
         <f t="shared" si="5"/>
         <v>8719.6028513882957</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -4119,12 +4184,12 @@
       <c r="H67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="58">
+      <c r="I67" s="57">
         <f t="shared" si="5"/>
         <v>8959.3919298014753</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -4140,12 +4205,12 @@
       <c r="H68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="58">
+      <c r="I68" s="57">
         <f t="shared" si="5"/>
         <v>9205.7752078710164</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B70" si="6">B68+1</f>
         <v>2026</v>
@@ -4159,7 +4224,7 @@
         <v>69404.032779785135</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>2027</v>
@@ -4173,7 +4238,7 @@
         <v>71312.643681229238</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E71" s="21"/>
     </row>
   </sheetData>
@@ -4183,35 +4248,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:Q70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2"/>
-    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="6"/>
-    <col min="6" max="8" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.77734375" style="1"/>
-    <col min="13" max="13" width="13.21875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="10.77734375" style="1"/>
-    <col min="16" max="16" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.77734375" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4231,7 +4298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -4252,16 +4319,16 @@
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="24"/>
+      <c r="O3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
       <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="23"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -4280,19 +4347,19 @@
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="12" t="s">
+      <c r="J4" s="64">
+        <v>0</v>
+      </c>
+      <c r="N4" s="24"/>
+      <c r="O4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
       <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="25"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="1">B4+1</f>
         <v>1962</v>
@@ -4311,20 +4378,25 @@
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="58">
         <f>G31</f>
         <v>14026.309838889361</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="54">
+      <c r="N5" s="30"/>
+      <c r="O5" s="53">
         <v>10780</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="67">
+        <f>10780*(1+$G$3)^6</f>
+        <v>12685.562931679911</v>
+      </c>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <f t="shared" si="1"/>
         <v>1963</v>
@@ -4343,16 +4415,23 @@
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="58">
         <v>7217</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="K6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="63">
+        <f>7217*(1+$G$3)^6</f>
+        <v>8492.7372614038886</v>
+      </c>
+      <c r="O6" s="12"/>
       <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="25"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>1964</v>
@@ -4371,23 +4450,23 @@
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="16">
-        <f>M16</f>
-        <v>7140</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="J7" s="58">
+        <f>O16</f>
+        <v>7422.4080122352307</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="30">
+      <c r="P7" s="30">
         <v>3500</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="Q7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>1965</v>
@@ -4406,16 +4485,16 @@
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
+      <c r="J8" s="58">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12"/>
       <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
-    </row>
-    <row r="9" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>1966</v>
@@ -4434,18 +4513,18 @@
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="J9" s="65">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
       <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>1967</v>
@@ -4464,20 +4543,26 @@
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="46">
         <f>SUM(J4:J9)</f>
-        <v>28383.309838889363</v>
-      </c>
-      <c r="M10" s="55">
-        <f>M5-N7</f>
+        <v>28665.717851124595</v>
+      </c>
+      <c r="O10" s="54">
+        <f>O5-P7</f>
         <v>7280</v>
       </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-    </row>
-    <row r="11" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
+      <c r="U10" s="68">
+        <f>J5-3500</f>
+        <v>10526.309838889361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>1968</v>
@@ -4498,15 +4583,15 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D67</f>
-        <v>0.5221321075141454</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
+        <v>0.52732721306893271</v>
+      </c>
+      <c r="O11" s="12"/>
       <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>1969</v>
@@ -4522,15 +4607,15 @@
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -4546,16 +4631,21 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="M13" s="55">
-        <f>M10/2</f>
+      <c r="O13" s="54">
+        <f>O10/2</f>
         <v>3640</v>
       </c>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="59">
+        <f>U10/2</f>
+        <v>5263.1549194446807</v>
+      </c>
+      <c r="S13" s="25"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>1971</v>
@@ -4571,13 +4661,13 @@
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>1972</v>
@@ -4593,15 +4683,15 @@
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
       <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>1973</v>
@@ -4617,16 +4707,16 @@
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="M16" s="56">
-        <f>M5-M13</f>
-        <v>7140</v>
-      </c>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="55">
+        <f>R5-R13</f>
+        <v>7422.4080122352307</v>
+      </c>
       <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>1974</v>
@@ -4642,13 +4732,13 @@
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>1975</v>
@@ -4665,7 +4755,7 @@
         <v>17398.481603436052</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>1976</v>
@@ -4682,7 +4772,7 @@
         <v>17876.939847530546</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>1977</v>
@@ -4699,12 +4789,12 @@
         <v>18368.555693337639</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="51">
+      <c r="C21" s="50">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -4720,12 +4810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -4741,12 +4831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -4772,12 +4862,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="1"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -4799,12 +4889,12 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="1"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -4829,12 +4919,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="1"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="51">
+      <c r="C26" s="50">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -4854,16 +4944,16 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="1"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="51">
+      <c r="C27" s="50">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="52">
         <v>0</v>
       </c>
       <c r="E27" s="21">
@@ -4881,12 +4971,12 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <f t="shared" si="1"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C28" s="50">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -4909,12 +4999,12 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
         <f t="shared" si="1"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="50">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -4930,12 +5020,12 @@
         <v>55415.852334049006</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <f t="shared" si="1"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="50">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -4956,12 +5046,12 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f t="shared" si="1"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="50">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -4983,12 +5073,12 @@
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2">
         <f t="shared" si="1"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="50">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -5004,12 +5094,12 @@
         <v>60814.793955819347</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="50">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
@@ -5031,12 +5121,12 @@
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <f t="shared" si="1"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="51">
+      <c r="C34" s="50">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -5058,12 +5148,12 @@
       <c r="I34" s="24"/>
       <c r="J34" s="45"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <f t="shared" si="1"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="51">
+      <c r="C35" s="50">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
@@ -5083,12 +5173,12 @@
       <c r="I35" s="24"/>
       <c r="J35" s="45"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <f t="shared" si="1"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="51">
+      <c r="C36" s="50">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
@@ -5110,12 +5200,12 @@
       <c r="I36" s="24"/>
       <c r="J36" s="45"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <f t="shared" si="1"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="51">
+      <c r="C37" s="50">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
@@ -5138,12 +5228,12 @@
       <c r="I37" s="24"/>
       <c r="J37" s="45"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <f t="shared" si="1"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="50">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -5163,12 +5253,12 @@
       <c r="I38" s="24"/>
       <c r="J38" s="45"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B39" s="2">
         <f t="shared" si="1"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="51">
+      <c r="C39" s="50">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
@@ -5190,12 +5280,12 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <f t="shared" si="1"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="51">
+      <c r="C40" s="50">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -5218,12 +5308,12 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <f t="shared" si="1"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="51">
+      <c r="C41" s="50">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
@@ -5243,12 +5333,12 @@
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B42" s="2">
         <f t="shared" si="1"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="50">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
@@ -5270,12 +5360,12 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="50">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -5298,12 +5388,12 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B44" s="2">
         <f t="shared" si="1"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="51">
+      <c r="C44" s="50">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -5319,12 +5409,12 @@
         <v>61113.306922068092</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <f t="shared" si="1"/>
         <v>2002</v>
       </c>
-      <c r="C45" s="51">
+      <c r="C45" s="50">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
@@ -5340,12 +5430,12 @@
         <v>58401.611676788838</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B46" s="2">
         <f t="shared" si="1"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="51">
+      <c r="C46" s="50">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
@@ -5361,12 +5451,12 @@
         <v>57885.81116338935</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B47" s="2">
         <f t="shared" si="1"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C47" s="50">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
@@ -5382,12 +5472,12 @@
         <v>59364.894447471423</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B48" s="2">
         <f t="shared" si="1"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="51">
+      <c r="C48" s="50">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
@@ -5403,12 +5493,12 @@
         <v>59258.426242248839</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <f t="shared" si="1"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C49" s="50">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
@@ -5424,12 +5514,12 @@
         <v>58515.810819026374</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <f t="shared" si="1"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="51">
+      <c r="C50" s="50">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
@@ -5445,12 +5535,12 @@
         <v>58278.615635712173</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <f t="shared" si="1"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="51">
+      <c r="C51" s="50">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
@@ -5466,12 +5556,12 @@
         <v>57968.309392562274</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <f t="shared" si="1"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="51">
+      <c r="C52" s="50">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
@@ -5487,12 +5577,12 @@
         <v>57151.585090859298</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <f t="shared" si="1"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="51">
+      <c r="C53" s="50">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
@@ -5508,12 +5598,12 @@
         <v>56557.397743098496</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <f t="shared" si="1"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="51">
+      <c r="C54" s="50">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
@@ -5529,12 +5619,12 @@
         <v>56075.46194167895</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <f t="shared" si="1"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="51">
+      <c r="C55" s="50">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
@@ -5550,12 +5640,12 @@
         <v>55513.179666291158</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <f t="shared" si="1"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="50">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
@@ -5571,12 +5661,12 @@
         <v>54547.362148201624</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <f t="shared" si="1"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="51">
+      <c r="C57" s="50">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
@@ -5592,12 +5682,12 @@
         <v>54470.00121941945</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <f t="shared" si="1"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="51">
+      <c r="C58" s="50">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
@@ -5613,12 +5703,12 @@
         <v>54045.523335174788</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="51">
+      <c r="C59" s="50">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
@@ -5634,12 +5724,12 @@
         <v>53628.302116306768</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <f t="shared" si="1"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="51">
+      <c r="C60" s="50">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
@@ -5655,12 +5745,12 @@
         <v>53091.550018353897</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="51">
+      <c r="C61" s="50">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
@@ -5676,12 +5766,12 @@
         <v>52058.782020158455</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="51">
+      <c r="C62" s="50">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
@@ -5696,12 +5786,12 @@
         <v>51527.438220399257</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
-      <c r="C63" s="51">
+      <c r="C63" s="50">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -5721,12 +5811,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
-      <c r="C64" s="51">
+      <c r="C64" s="50">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
@@ -5743,12 +5833,12 @@
         <v>51527.438220399257</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="C65" s="51">
+      <c r="C65" s="50">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
@@ -5765,12 +5855,12 @@
         <v>51527.438220399257</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
-      <c r="C66" s="51">
+      <c r="C66" s="50">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
@@ -5787,12 +5877,12 @@
         <v>51527.438220399257</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
-      <c r="C67" s="51">
+      <c r="C67" s="50">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -5809,12 +5899,12 @@
         <v>51527.438220399257</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="2">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
-      <c r="C68" s="52">
+      <c r="C68" s="51">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
@@ -5824,7 +5914,7 @@
         <v>67546.503921932002</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B70" si="6">B68+1</f>
         <v>2026</v>
@@ -5838,7 +5928,7 @@
         <v>69404.032779785135</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>2027</v>
@@ -5858,30 +5948,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2"/>
-    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="5"/>
-    <col min="5" max="5" width="10.77734375" style="6"/>
-    <col min="6" max="8" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.77734375" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -5898,54 +5988,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>

--- a/Gabarit-final .xlsx
+++ b/Gabarit-final .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanmetivier-dionne/ATCR-TP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFDFA71-9F8A-4B32-A791-1DDA5A741EE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2000" windowWidth="23260" windowHeight="12580" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,12 @@
     <sheet name="QUESTION 3" sheetId="3" r:id="rId3"/>
     <sheet name="QUESTION 6" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>Années</t>
   </si>
@@ -196,11 +197,17 @@
   <si>
     <t>tjr avec ce qui est plus haut</t>
   </si>
+  <si>
+    <t>Exemption générale</t>
+  </si>
+  <si>
+    <t>Salaire ajusté</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -246,7 +253,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -524,13 +537,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -598,7 +624,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -638,6 +663,11 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -958,32 +988,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.77734375" style="1"/>
+    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -996,14 +1026,14 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="70" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -1017,15 +1047,15 @@
         <f t="shared" ref="E3:E59" si="0">E4/(1+$G$17)</f>
         <v>11582.008786282422</v>
       </c>
-      <c r="F3" s="39">
-        <f>(D3/E3)*$G$28</f>
+      <c r="F3" s="69">
+        <f t="shared" ref="F3:F61" si="1">MAX(((D3-$I$17)/E3)*$G$28,0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -1041,8 +1071,8 @@
         <f t="shared" si="0"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="F4" s="39">
-        <f t="shared" ref="F4:F62" si="1">(D4/E4)*$G$28</f>
+      <c r="F4" s="69">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -1052,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
@@ -1068,19 +1098,19 @@
         <f t="shared" si="0"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="57">
         <f>G31*G43</f>
-        <v>8038.0594342075183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>7198.7132217632752</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -1096,7 +1126,7 @@
         <f t="shared" si="0"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1110,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1964</v>
@@ -1126,7 +1156,7 @@
         <f t="shared" si="0"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1140,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
@@ -1156,7 +1186,7 @@
         <f t="shared" si="0"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1167,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1966</v>
@@ -1183,7 +1213,7 @@
         <f t="shared" si="0"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1967</v>
@@ -1210,19 +1240,19 @@
         <f t="shared" si="0"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="45">
         <f>SUM(L4:L9)</f>
-        <v>8038.0594342075183</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>7198.7132217632752</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1968</v>
@@ -1238,7 +1268,7 @@
         <f t="shared" si="0"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1247,10 +1277,10 @@
       </c>
       <c r="L11" s="17">
         <f>L10/D62</f>
-        <v>0.16934708594137823</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
+        <v>0.15166360943354631</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1969</v>
@@ -1266,7 +1296,7 @@
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1275,7 +1305,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
@@ -1291,7 +1321,7 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1300,7 +1330,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>1971</v>
@@ -1316,7 +1346,7 @@
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1325,7 +1355,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>1972</v>
@@ -1341,12 +1371,12 @@
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="F15" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="F15" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>1973</v>
@@ -1362,15 +1392,18 @@
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -1386,7 +1419,7 @@
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1395,8 +1428,11 @@
         <v>2.75E-2</v>
       </c>
       <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I17" s="68">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -1412,12 +1448,12 @@
         <f t="shared" si="0"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="F18" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -1433,12 +1469,12 @@
         <f t="shared" si="0"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="F19" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -1454,17 +1490,17 @@
         <f t="shared" si="0"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="F20" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F20" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -1475,17 +1511,17 @@
         <f t="shared" si="0"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F21" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -1496,17 +1532,17 @@
         <f t="shared" si="0"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F22" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -1517,7 +1553,7 @@
         <f t="shared" si="0"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1532,12 +1568,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -1548,7 +1584,7 @@
         <f t="shared" si="0"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1559,12 +1595,12 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -1575,7 +1611,7 @@
         <f t="shared" si="0"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1589,12 +1625,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="49">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -1605,7 +1641,7 @@
         <f t="shared" si="0"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1614,12 +1650,12 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -1630,7 +1666,7 @@
         <f t="shared" si="0"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1641,12 +1677,12 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="49">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
@@ -1657,9 +1693,9 @@
         <f t="shared" si="0"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="F28" s="41">
-        <f t="shared" si="1"/>
-        <v>47349.717921805815</v>
+      <c r="F28" s="40">
+        <f t="shared" si="1"/>
+        <v>39005.10499500217</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E58:E62)</f>
@@ -1669,12 +1705,12 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="49">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
@@ -1685,17 +1721,17 @@
         <f t="shared" si="0"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="F29" s="41">
-        <f t="shared" si="1"/>
-        <v>48386.573058779657</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="40">
+        <f t="shared" si="1"/>
+        <v>40265.295271136216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -1706,9 +1742,9 @@
         <f t="shared" si="0"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="F30" s="41">
-        <f t="shared" si="1"/>
-        <v>50230.540655002631</v>
+      <c r="F30" s="40">
+        <f t="shared" si="1"/>
+        <v>42326.620667028474</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -1716,12 +1752,12 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="49">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -1732,23 +1768,23 @@
         <f t="shared" si="0"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="1"/>
-        <v>50086.182163626858</v>
-      </c>
-      <c r="G31" s="60">
+      <c r="F31" s="40">
+        <f t="shared" si="1"/>
+        <v>42393.802613287044</v>
+      </c>
+      <c r="G31" s="59">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
-        <v>11997.103633145551</v>
+        <v>10744.348092183995</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="49">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -1759,17 +1795,17 @@
         <f t="shared" si="0"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="F32" s="41">
-        <f t="shared" si="1"/>
-        <v>53100.680524764917</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F32" s="40">
+        <f t="shared" si="1"/>
+        <v>45614.179745845388</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="49">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -1780,9 +1816,9 @@
         <f t="shared" si="0"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="F33" s="41">
-        <f t="shared" si="1"/>
-        <v>51741.946989237338</v>
+      <c r="F33" s="40">
+        <f t="shared" si="1"/>
+        <v>44455.814844303495</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>23</v>
@@ -1791,12 +1827,12 @@
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="49">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -1807,7 +1843,7 @@
         <f t="shared" si="0"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="49">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -1835,7 +1871,7 @@
         <f t="shared" si="0"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1844,14 +1880,14 @@
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="49">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -1862,7 +1898,7 @@
         <f t="shared" si="0"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1871,14 +1907,14 @@
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="49">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -1889,7 +1925,7 @@
         <f t="shared" si="0"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1899,14 +1935,14 @@
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="49">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -1917,21 +1953,21 @@
         <f t="shared" si="0"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="F38" s="42">
-        <f t="shared" si="1"/>
-        <v>2366.6325353695747</v>
+      <c r="F38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="49">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -1942,9 +1978,9 @@
         <f t="shared" si="0"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="F39" s="42">
-        <f t="shared" si="1"/>
-        <v>2639.4098861728016</v>
+      <c r="F39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>25</v>
@@ -1953,12 +1989,12 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="49">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -1969,7 +2005,7 @@
         <f t="shared" si="0"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1981,12 +2017,12 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="49">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
@@ -1997,21 +2033,21 @@
         <f t="shared" si="0"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="F41" s="41">
-        <f t="shared" si="1"/>
-        <v>52203.799189353202</v>
+      <c r="F41" s="40">
+        <f t="shared" si="1"/>
+        <v>46339.145131810714</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="49">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
@@ -2022,9 +2058,9 @@
         <f t="shared" si="0"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="F42" s="41">
-        <f t="shared" si="1"/>
-        <v>52758.648055506295</v>
+      <c r="F42" s="40">
+        <f t="shared" si="1"/>
+        <v>47050.955542082949</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>26</v>
@@ -2033,12 +2069,12 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="49">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
@@ -2049,9 +2085,9 @@
         <f t="shared" si="0"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="F43" s="41">
-        <f t="shared" si="1"/>
-        <v>52008.446568611624</v>
+      <c r="F43" s="40">
+        <f t="shared" si="1"/>
+        <v>46453.514682068228</v>
       </c>
       <c r="G43" s="35">
         <f>1-G40</f>
@@ -2061,12 +2097,12 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="49">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
@@ -2077,17 +2113,17 @@
         <f t="shared" si="0"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" si="1"/>
-        <v>53361.328314919236</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>47955.068571324686</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f>B44+1</f>
         <v>2002</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="49">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
@@ -2098,17 +2134,17 @@
         <f t="shared" si="0"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="F45" s="41">
-        <f t="shared" si="1"/>
-        <v>50993.600768153141</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>45732.034107720487</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="49">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
@@ -2119,17 +2155,17 @@
         <f t="shared" si="0"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="F46" s="41">
-        <f t="shared" si="1"/>
-        <v>50543.227487328848</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F46" s="40">
+        <f t="shared" si="1"/>
+        <v>45422.481345788554</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="49">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
@@ -2140,17 +2176,17 @@
         <f t="shared" si="0"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="F47" s="41">
-        <f t="shared" si="1"/>
-        <v>51834.694971287114</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F47" s="40">
+        <f t="shared" si="1"/>
+        <v>46851.000429642059</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="49">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
@@ -2161,17 +2197,17 @@
         <f t="shared" si="0"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="F48" s="41">
-        <f t="shared" si="1"/>
-        <v>51741.731832158875</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F48" s="40">
+        <f t="shared" si="1"/>
+        <v>46891.420842723302</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="49">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
@@ -2182,17 +2218,17 @@
         <f t="shared" si="0"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="F49" s="41">
-        <f t="shared" si="1"/>
-        <v>51093.314205849943</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F49" s="40">
+        <f t="shared" si="1"/>
+        <v>46372.816892530645</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="49">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
@@ -2203,17 +2239,17 @@
         <f t="shared" si="0"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="F50" s="41">
-        <f t="shared" si="1"/>
-        <v>50886.206283058484</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F50" s="40">
+        <f t="shared" si="1"/>
+        <v>46292.04831389129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="49">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2224,17 +2260,17 @@
         <f t="shared" si="0"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="F51" s="41">
-        <f t="shared" si="1"/>
-        <v>50615.261146019737</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F51" s="40">
+        <f t="shared" si="1"/>
+        <v>46144.061176027331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="49">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
@@ -2245,17 +2281,17 @@
         <f t="shared" si="0"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="F52" s="41">
-        <f t="shared" si="1"/>
-        <v>49902.135056123778</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F52" s="40">
+        <f t="shared" si="1"/>
+        <v>45550.602238612926</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="49">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
@@ -2266,17 +2302,17 @@
         <f t="shared" si="0"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="F53" s="41">
-        <f t="shared" si="1"/>
-        <v>49383.317997428727</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F53" s="40">
+        <f t="shared" si="1"/>
+        <v>45148.249561895049</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="49">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
@@ -2287,17 +2323,17 @@
         <f t="shared" si="0"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="F54" s="41">
-        <f t="shared" si="1"/>
-        <v>48962.513825285729</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F54" s="40">
+        <f t="shared" si="1"/>
+        <v>44840.792720143458</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="49">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
@@ -2308,17 +2344,17 @@
         <f t="shared" si="0"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="F55" s="41">
-        <f t="shared" si="1"/>
-        <v>48471.554808113106</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F55" s="40">
+        <f t="shared" si="1"/>
+        <v>44460.147406514792</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="49">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
@@ -2329,17 +2365,17 @@
         <f t="shared" si="0"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="F56" s="41">
-        <f t="shared" si="1"/>
-        <v>47628.247380144967</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F56" s="40">
+        <f t="shared" si="1"/>
+        <v>43724.201247202574</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="49">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
@@ -2350,17 +2386,17 @@
         <f t="shared" si="0"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="F57" s="41">
-        <f t="shared" si="1"/>
-        <v>47560.69937583297</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F57" s="40">
+        <f t="shared" si="1"/>
+        <v>43761.141095597064</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="49">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
@@ -2371,17 +2407,17 @@
         <f t="shared" si="0"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="F58" s="41">
-        <f t="shared" si="1"/>
-        <v>47190.064813830199</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F58" s="40">
+        <f t="shared" si="1"/>
+        <v>43492.197874427853</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="49">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
@@ -2392,17 +2428,17 @@
         <f t="shared" si="0"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="F59" s="41">
-        <f t="shared" si="1"/>
-        <v>46825.766438218518</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F59" s="40">
+        <f t="shared" si="1"/>
+        <v>43226.869173593368</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="49">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
@@ -2413,17 +2449,17 @@
         <f>E61/(1+$G$17)</f>
         <v>54368.610178722593</v>
       </c>
-      <c r="F60" s="41">
-        <f t="shared" si="1"/>
-        <v>46357.099197561605</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F60" s="40">
+        <f t="shared" si="1"/>
+        <v>42854.522784301116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="49">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
@@ -2434,17 +2470,17 @@
         <f>E62/(1+$G$17)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="F61" s="41">
-        <f t="shared" si="1"/>
-        <v>45455.333690171778</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F61" s="40">
+        <f t="shared" si="1"/>
+        <v>42046.500197947462</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="49">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
@@ -2454,12 +2490,12 @@
       <c r="E62" s="21">
         <v>57400</v>
       </c>
-      <c r="F62" s="41">
-        <f t="shared" si="1"/>
-        <v>44991.388726709025</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F62" s="40">
+        <f>MAX(((D62-$I$17)/E62)*$G$28,0)</f>
+        <v>41673.7892208946</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -2473,9 +2509,9 @@
         <f>(1+$G$17)*E62</f>
         <v>58978.500000000007</v>
       </c>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F63" s="42"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -2489,9 +2525,9 @@
         <f t="shared" ref="E64:E69" si="4">1.0275*E63</f>
         <v>60600.40875000001</v>
       </c>
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f>B64+1</f>
         <v>2022</v>
@@ -2505,9 +2541,9 @@
         <f t="shared" si="4"/>
         <v>62266.919990625014</v>
       </c>
-      <c r="F65" s="43"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="42"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -2521,9 +2557,9 @@
         <f t="shared" si="4"/>
         <v>63979.260290367209</v>
       </c>
-      <c r="F66" s="43"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -2537,9 +2573,9 @@
         <f t="shared" si="4"/>
         <v>65738.689948352316</v>
       </c>
-      <c r="F67" s="43"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F67" s="42"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -2553,9 +2589,9 @@
         <f t="shared" si="4"/>
         <v>67546.503921932002</v>
       </c>
-      <c r="F68" s="43"/>
-    </row>
-    <row r="69" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="42"/>
+    </row>
+    <row r="69" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <f t="shared" ref="B69:C69" si="5">B68+1</f>
         <v>2026</v>
@@ -2569,7 +2605,7 @@
         <f t="shared" si="4"/>
         <v>69404.032779785135</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2577,31 +2613,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="5" max="5" width="11.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2614,7 +2650,7 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2624,7 +2660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -2638,8 +2674,8 @@
         <f t="shared" ref="E3:E60" si="0">E4/(1+$G$3)</f>
         <v>11582.008786282422</v>
       </c>
-      <c r="F3" s="39">
-        <f>(D3/E3)*$G$28</f>
+      <c r="F3" s="69">
+        <f t="shared" ref="F3:F61" si="1">MAX(((D3-$G$6)/E3)*$G$28,0)</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -2650,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -2666,8 +2702,8 @@
         <f t="shared" si="0"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="F4" s="39">
-        <f t="shared" ref="F4:F61" si="1">(D4/E4)*$G$28</f>
+      <c r="F4" s="69">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2677,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
@@ -2693,19 +2729,22 @@
         <f t="shared" si="0"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="F5" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F5" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <f>I68</f>
-        <v>9205.7752078710164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.15">
+        <v>8244.4943643310162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>1963</v>
@@ -2721,29 +2760,32 @@
         <f t="shared" si="0"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="F6" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F6" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
+        <v>3500</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="57">
         <v>7217</v>
       </c>
-      <c r="K6" s="61" t="s">
+      <c r="K6" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="62">
         <f>7217*(1+$G$3)^6</f>
         <v>8492.7372614038886</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>1964</v>
@@ -2759,14 +2801,14 @@
         <f t="shared" si="0"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="57">
         <v>10780</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2775,12 +2817,12 @@
       <c r="N7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="62">
         <f>10780*(1+$G$3)^6-(9206-3500)/2</f>
         <v>9832.5629316799113</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>1965</v>
@@ -2796,7 +2838,7 @@
         <f t="shared" si="0"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2807,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>1966</v>
@@ -2823,7 +2865,7 @@
         <f t="shared" si="0"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>1967</v>
@@ -2850,19 +2892,19 @@
         <f t="shared" si="0"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <f>SUM(J4:J9)</f>
-        <v>27202.775207871018</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>26241.494364331018</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>1968</v>
@@ -2878,7 +2920,7 @@
         <f t="shared" si="0"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2887,10 +2929,10 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D62</f>
-        <v>0.57311229764818328</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.15">
+        <v>0.55285988337366521</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>1969</v>
@@ -2906,12 +2948,12 @@
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="F12" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F12" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>1970</v>
@@ -2927,12 +2969,12 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="F13" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F13" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>1971</v>
@@ -2941,19 +2983,19 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>0</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="F14" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F14" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>1972</v>
@@ -2962,19 +3004,19 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>0</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="F15" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="F15" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>1973</v>
@@ -2983,19 +3025,19 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>0</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="F16" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F16" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>1974</v>
@@ -3004,19 +3046,19 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>0</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="F17" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F17" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>1975</v>
@@ -3025,19 +3067,19 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="F18" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F18" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>1976</v>
@@ -3046,19 +3088,19 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>0</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="F19" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F19" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>1977</v>
@@ -3067,78 +3109,78 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>0</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="F20" s="39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F20" s="69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="49">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="46">
         <v>0</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="0"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F21" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="39">
+        <f>MAX(((D21-$G$6)/E21)*$G$28,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="49">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="46">
         <v>0</v>
       </c>
       <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F22" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="49">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="46">
         <v>0</v>
       </c>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F23" s="40">
-        <f>(D23/E23)*$G$28</f>
+      <c r="F23" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="31" t="s">
@@ -3152,24 +3194,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="49">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="46">
         <v>0</v>
       </c>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F24" s="40">
-        <f>(D24/E24)*$G$28</f>
+      <c r="F24" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="33" t="s">
@@ -3179,23 +3221,23 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="49">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="46">
         <v>0</v>
       </c>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3209,23 +3251,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="49">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="46">
         <v>0</v>
       </c>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3234,23 +3276,23 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D27" s="47">
+      <c r="D27" s="46">
         <v>0</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3261,25 +3303,25 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="49">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="46">
         <v>19860</v>
       </c>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="F28" s="41">
-        <f t="shared" si="1"/>
-        <v>47349.717921805815</v>
+      <c r="F28" s="40">
+        <f t="shared" si="1"/>
+        <v>39005.10499500217</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E58:E62)</f>
@@ -3289,46 +3331,46 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="50">
+      <c r="C29" s="49">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D29" s="46">
         <v>20853</v>
       </c>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="F29" s="41">
-        <f t="shared" si="1"/>
-        <v>48386.573058779657</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F29" s="40">
+        <f t="shared" si="1"/>
+        <v>40265.295271136216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="49">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="46">
         <v>22243</v>
       </c>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="F30" s="41">
-        <f t="shared" si="1"/>
-        <v>50230.540655002631</v>
+      <c r="F30" s="40">
+        <f t="shared" si="1"/>
+        <v>42326.620667028474</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -3336,73 +3378,73 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="50">
+      <c r="C31" s="49">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="46">
         <v>22789</v>
       </c>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="1"/>
-        <v>50086.182163626858</v>
+      <c r="F31" s="40">
+        <f t="shared" si="1"/>
+        <v>42393.802613287044</v>
       </c>
       <c r="G31" s="37">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
-        <v>11997.103633145551</v>
+        <v>10744.348092183995</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="49">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="46">
         <v>24825</v>
       </c>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="F32" s="41">
-        <f t="shared" si="1"/>
-        <v>53100.680524764917</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F32" s="40">
+        <f t="shared" si="1"/>
+        <v>45614.179745845388</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="50">
+      <c r="C33" s="49">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="46">
         <v>24855</v>
       </c>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="F33" s="41">
-        <f t="shared" si="1"/>
-        <v>51741.946989237338</v>
+      <c r="F33" s="40">
+        <f t="shared" si="1"/>
+        <v>44455.814844303495</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -3411,23 +3453,23 @@
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="50">
+      <c r="C34" s="49">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="46">
         <v>0</v>
       </c>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3437,50 +3479,50 @@
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="50">
+      <c r="C35" s="49">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="46">
         <v>0</v>
       </c>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G35" s="12"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="49">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="46">
         <v>0</v>
       </c>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3489,25 +3531,25 @@
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="50">
+      <c r="C37" s="49">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="46">
         <v>0</v>
       </c>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3517,52 +3559,52 @@
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="49">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="46">
         <v>1302</v>
       </c>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="F38" s="42">
-        <f t="shared" si="1"/>
-        <v>2366.6325353695747</v>
+      <c r="F38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="50">
+      <c r="C39" s="49">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="D39" s="47">
+      <c r="D39" s="46">
         <v>1492</v>
       </c>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="F39" s="42">
-        <f t="shared" si="1"/>
-        <v>2639.4098861728016</v>
+      <c r="F39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>25</v>
@@ -3571,23 +3613,23 @@
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="50">
+      <c r="C40" s="49">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="46">
         <v>0</v>
       </c>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3599,50 +3641,50 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="49">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="D41" s="47">
+      <c r="D41" s="46">
         <v>31155</v>
       </c>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="F41" s="41">
-        <f t="shared" si="1"/>
-        <v>52203.799189353202</v>
+      <c r="F41" s="40">
+        <f t="shared" si="1"/>
+        <v>46339.145131810714</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="49">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="46">
         <v>32352</v>
       </c>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="F42" s="41">
-        <f t="shared" si="1"/>
-        <v>52758.648055506295</v>
+      <c r="F42" s="40">
+        <f t="shared" si="1"/>
+        <v>47050.955542082949</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>26</v>
@@ -3651,25 +3693,25 @@
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="50">
+      <c r="C43" s="49">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="46">
         <v>32769</v>
       </c>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="F43" s="41">
-        <f t="shared" si="1"/>
-        <v>52008.446568611624</v>
+      <c r="F43" s="40">
+        <f t="shared" si="1"/>
+        <v>46453.514682068228</v>
       </c>
       <c r="G43" s="13">
         <f>1-G40</f>
@@ -3679,411 +3721,411 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="50">
+      <c r="C44" s="49">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="46">
         <v>34546</v>
       </c>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" si="1"/>
-        <v>53361.328314919236</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>47955.068571324686</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="2"/>
         <v>2002</v>
       </c>
-      <c r="C45" s="50">
+      <c r="C45" s="49">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="46">
         <v>33921</v>
       </c>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="F45" s="41">
-        <f t="shared" si="1"/>
-        <v>50993.600768153141</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>45732.034107720487</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="50">
+      <c r="C46" s="49">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="46">
         <v>34546</v>
       </c>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="F46" s="41">
-        <f t="shared" si="1"/>
-        <v>50543.227487328848</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F46" s="40">
+        <f t="shared" si="1"/>
+        <v>45422.481345788554</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="50">
+      <c r="C47" s="49">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="46">
         <v>36403</v>
       </c>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="F47" s="41">
-        <f t="shared" si="1"/>
-        <v>51834.694971287114</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F47" s="40">
+        <f t="shared" si="1"/>
+        <v>46851.000429642059</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="49">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="46">
         <v>37337</v>
       </c>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="F48" s="41">
-        <f t="shared" si="1"/>
-        <v>51741.731832158875</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F48" s="40">
+        <f t="shared" si="1"/>
+        <v>46891.420842723302</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="50">
+      <c r="C49" s="49">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="46">
         <v>37883</v>
       </c>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="F49" s="41">
-        <f t="shared" si="1"/>
-        <v>51093.314205849943</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F49" s="40">
+        <f t="shared" si="1"/>
+        <v>46372.816892530645</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="50">
+      <c r="C50" s="49">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="46">
         <v>38767</v>
       </c>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="F50" s="41">
-        <f t="shared" si="1"/>
-        <v>50886.206283058484</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F50" s="40">
+        <f t="shared" si="1"/>
+        <v>46292.04831389129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="50">
+      <c r="C51" s="49">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="46">
         <v>39621</v>
       </c>
       <c r="E51" s="21">
         <f t="shared" si="0"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="F51" s="41">
-        <f t="shared" si="1"/>
-        <v>50615.261146019737</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F51" s="40">
+        <f t="shared" si="1"/>
+        <v>46144.061176027331</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="50">
+      <c r="C52" s="49">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="46">
         <v>40137</v>
       </c>
       <c r="E52" s="21">
         <f t="shared" si="0"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="F52" s="41">
-        <f t="shared" si="1"/>
-        <v>49902.135056123778</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F52" s="40">
+        <f t="shared" si="1"/>
+        <v>45550.602238612926</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="50">
+      <c r="C53" s="49">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="D53" s="47">
+      <c r="D53" s="46">
         <v>40812</v>
       </c>
       <c r="E53" s="21">
         <f t="shared" si="0"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="F53" s="41">
-        <f t="shared" si="1"/>
-        <v>49383.317997428727</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F53" s="40">
+        <f t="shared" si="1"/>
+        <v>45148.249561895049</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="50">
+      <c r="C54" s="49">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-      <c r="D54" s="47">
+      <c r="D54" s="46">
         <v>41577</v>
       </c>
       <c r="E54" s="21">
         <f t="shared" si="0"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="F54" s="41">
-        <f t="shared" si="1"/>
-        <v>48962.513825285729</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F54" s="40">
+        <f t="shared" si="1"/>
+        <v>44840.792720143458</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="49">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="D55" s="47">
+      <c r="D55" s="46">
         <v>42292</v>
       </c>
       <c r="E55" s="21">
         <f t="shared" si="0"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="F55" s="41">
-        <f t="shared" si="1"/>
-        <v>48471.554808113106</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F55" s="40">
+        <f t="shared" si="1"/>
+        <v>44460.147406514792</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="50">
+      <c r="C56" s="49">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="46">
         <v>42699</v>
       </c>
       <c r="E56" s="21">
         <f t="shared" si="0"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="F56" s="41">
-        <f t="shared" si="1"/>
-        <v>47628.247380144967</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F56" s="40">
+        <f t="shared" si="1"/>
+        <v>43724.201247202574</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="50">
+      <c r="C57" s="49">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="D57" s="47">
+      <c r="D57" s="46">
         <v>43811</v>
       </c>
       <c r="E57" s="21">
         <f t="shared" si="0"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="F57" s="41">
-        <f t="shared" si="1"/>
-        <v>47560.69937583297</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F57" s="40">
+        <f t="shared" si="1"/>
+        <v>43761.141095597064</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="50">
+      <c r="C58" s="49">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="46">
         <v>44665</v>
       </c>
       <c r="E58" s="21">
         <f t="shared" si="0"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="F58" s="41">
-        <f t="shared" si="1"/>
-        <v>47190.064813830199</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F58" s="40">
+        <f t="shared" si="1"/>
+        <v>43492.197874427853</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="50">
+      <c r="C59" s="49">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="D59" s="47">
+      <c r="D59" s="46">
         <v>45539</v>
       </c>
       <c r="E59" s="21">
         <f t="shared" si="0"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="F59" s="41">
-        <f t="shared" si="1"/>
-        <v>46825.766438218518</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F59" s="40">
+        <f t="shared" si="1"/>
+        <v>43226.869173593368</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="50">
+      <c r="C60" s="49">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="46">
         <v>46323</v>
       </c>
       <c r="E60" s="21">
         <f t="shared" si="0"/>
         <v>54368.610178722593</v>
       </c>
-      <c r="F60" s="41">
-        <f>(D60/E60)*$G$28</f>
-        <v>46357.099197561605</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F60" s="40">
+        <f t="shared" si="1"/>
+        <v>42854.522784301116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="50">
+      <c r="C61" s="49">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="D61" s="47">
+      <c r="D61" s="46">
         <v>46671</v>
       </c>
       <c r="E61" s="21">
         <f>E62/(1+$G$3)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="F61" s="41">
-        <f t="shared" si="1"/>
-        <v>45455.333690171778</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F61" s="40">
+        <f t="shared" si="1"/>
+        <v>42046.500197947462</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="50">
+      <c r="C62" s="49">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="D62" s="47">
+      <c r="D62" s="46">
         <v>47465</v>
       </c>
       <c r="E62" s="21">
         <v>57400</v>
       </c>
-      <c r="F62" s="41">
-        <f>(D62/E62)*$G$28</f>
-        <v>44991.388726709025</v>
-      </c>
-      <c r="I62" s="56" t="s">
+      <c r="F62" s="40">
+        <f>MAX(((D62-$G$6)/E62)*$G$28,0)</f>
+        <v>41673.7892208946</v>
+      </c>
+      <c r="I62" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="J62" s="62" t="s">
+      <c r="J62" s="61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -4092,7 +4134,7 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="D63" s="48"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="21">
         <f>E62*(1+$G$3)</f>
         <v>58978.500000000007</v>
@@ -4100,12 +4142,12 @@
       <c r="H63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="56">
         <f>G31*G43</f>
-        <v>8038.0594342075183</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.15">
+        <v>7198.7132217632752</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -4121,12 +4163,12 @@
       <c r="H64" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I64" s="56">
         <f>I63*(1+$G$3)</f>
-        <v>8259.1060686482251</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
+        <v>7396.6778353617656</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -4142,12 +4184,12 @@
       <c r="H65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I65" s="57">
+      <c r="I65" s="56">
         <f t="shared" ref="I65:I68" si="5">I64*(1+$G$3)</f>
-        <v>8486.2314855360528</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
+        <v>7600.086475834215</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -4163,12 +4205,12 @@
       <c r="H66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="56">
         <f t="shared" si="5"/>
-        <v>8719.6028513882957</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
+        <v>7809.0888539196567</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -4184,12 +4226,12 @@
       <c r="H67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="57">
+      <c r="I67" s="56">
         <f t="shared" si="5"/>
-        <v>8959.3919298014753</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+        <v>8023.8387974024481</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -4205,12 +4247,12 @@
       <c r="H68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="57">
+      <c r="I68" s="56">
         <f t="shared" si="5"/>
-        <v>9205.7752078710164</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
+        <v>8244.4943643310162</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B70" si="6">B68+1</f>
         <v>2026</v>
@@ -4224,7 +4266,7 @@
         <v>69404.032779785135</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>2027</v>
@@ -4238,7 +4280,7 @@
         <v>71312.643681229238</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E71" s="21"/>
     </row>
   </sheetData>
@@ -4248,37 +4290,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="6"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.77734375" style="1"/>
     <col min="13" max="13" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="13.1640625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="10.83203125" style="1"/>
-    <col min="18" max="18" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="10.77734375" style="1"/>
+    <col min="15" max="15" width="13.109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="10.77734375" style="1"/>
+    <col min="18" max="18" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -4291,6 +4333,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
@@ -4298,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1960</v>
       </c>
@@ -4311,6 +4356,10 @@
       <c r="E3" s="21">
         <f t="shared" ref="E3:E60" si="0">E4/(1+$G$3)</f>
         <v>11582.008786282422</v>
+      </c>
+      <c r="F3" s="71">
+        <f t="shared" ref="F3:F66" si="1">MAX(((D3-$G$6)/E3)*$G$28,0)</f>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <f>2.75/100</f>
@@ -4328,7 +4377,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>1961</v>
@@ -4344,10 +4393,14 @@
         <f t="shared" si="0"/>
         <v>11900.51402790519</v>
       </c>
+      <c r="F4" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="63">
         <v>0</v>
       </c>
       <c r="N4" s="24"/>
@@ -4359,13 +4412,13 @@
       <c r="R4" s="24"/>
       <c r="S4" s="25"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B68" si="1">B4+1</f>
+        <f t="shared" ref="B5:B68" si="2">B4+1</f>
         <v>1962</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C68" si="2">C4+1</f>
+        <f t="shared" ref="C5:C68" si="3">C4+1</f>
         <v>2</v>
       </c>
       <c r="D5" s="20">
@@ -4374,35 +4427,42 @@
       <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>12227.778163672583</v>
+      </c>
+      <c r="F5" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="58">
+      <c r="J5" s="57">
         <f>G31</f>
-        <v>14026.309838889361</v>
+        <v>12632.700090213326</v>
       </c>
       <c r="N5" s="30"/>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <v>10780</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="67">
+      <c r="Q5" s="65"/>
+      <c r="R5" s="66">
         <f>10780*(1+$G$3)^6</f>
         <v>12685.562931679911</v>
       </c>
       <c r="S5" s="25"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1963</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="D6" s="20">
@@ -4411,17 +4471,24 @@
       <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>12564.04206317358</v>
+      </c>
+      <c r="F6" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="68">
+        <v>3500</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="58">
+      <c r="J6" s="57">
         <v>7217</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="63">
+      <c r="M6" s="62">
         <f>7217*(1+$G$3)^6</f>
         <v>8492.7372614038886</v>
       </c>
@@ -4431,13 +4498,13 @@
       <c r="R6" s="24"/>
       <c r="S6" s="25"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1964</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D7" s="20">
@@ -4446,13 +4513,17 @@
       <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>12909.553219910855</v>
+      </c>
+      <c r="F7" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="58">
+      <c r="J7" s="57">
         <f>O16</f>
-        <v>7422.4080122352307</v>
+        <v>8119.2128865732484</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>31</v>
@@ -4466,13 +4537,13 @@
       <c r="R7" s="24"/>
       <c r="S7" s="25"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1965</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="D8" s="20">
@@ -4481,11 +4552,15 @@
       <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>13264.565933458405</v>
+      </c>
+      <c r="F8" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="58">
+      <c r="J8" s="57">
         <v>0</v>
       </c>
       <c r="O8" s="12"/>
@@ -4494,13 +4569,13 @@
       <c r="R8" s="24"/>
       <c r="S8" s="25"/>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1966</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="D9" s="20">
@@ -4509,11 +4584,15 @@
       <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>13629.341496628513</v>
+      </c>
+      <c r="F9" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="64">
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
@@ -4524,13 +4603,13 @@
       <c r="R9" s="24"/>
       <c r="S9" s="25"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1967</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="D10" s="20">
@@ -4539,15 +4618,19 @@
       <c r="E10" s="21">
         <f t="shared" si="0"/>
         <v>14004.148387785797</v>
+      </c>
+      <c r="F10" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="45">
         <f>SUM(J4:J9)</f>
-        <v>28665.717851124595</v>
-      </c>
-      <c r="O10" s="54">
+        <v>27968.912976786574</v>
+      </c>
+      <c r="O10" s="53">
         <f>O5-P7</f>
         <v>7280</v>
       </c>
@@ -4557,18 +4640,18 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="25"/>
-      <c r="U10" s="68">
+      <c r="U10" s="67">
         <f>J5-3500</f>
-        <v>10526.309838889361</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+        <v>9132.7000902133259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1968</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="D11" s="20">
@@ -4577,13 +4660,17 @@
       <c r="E11" s="21">
         <f t="shared" si="0"/>
         <v>14389.262468449908</v>
+      </c>
+      <c r="F11" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="J11" s="17">
         <f>J10/D67</f>
-        <v>0.52732721306893271</v>
+        <v>0.51450896883915842</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="24"/>
@@ -4591,13 +4678,13 @@
       <c r="R11" s="24"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1969</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="D12" s="20">
@@ -4606,6 +4693,10 @@
       <c r="E12" s="21">
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
+      </c>
+      <c r="F12" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O12" s="12" t="s">
         <v>34</v>
@@ -4615,13 +4706,13 @@
       <c r="R12" s="24"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1970</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="D13" s="20">
@@ -4631,7 +4722,11 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="O13" s="54">
+      <c r="F13" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="53">
         <f>O10/2</f>
         <v>3640</v>
       </c>
@@ -4639,27 +4734,31 @@
         <v>51</v>
       </c>
       <c r="Q13" s="24"/>
-      <c r="R13" s="59">
+      <c r="R13" s="58">
         <f>U10/2</f>
-        <v>5263.1549194446807</v>
+        <v>4566.3500451066629</v>
       </c>
       <c r="S13" s="25"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1971</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="46">
         <v>0</v>
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
+      </c>
+      <c r="F14" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="24"/>
@@ -4667,21 +4766,25 @@
       <c r="R14" s="24"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1972</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="46">
         <v>0</v>
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
+      </c>
+      <c r="F15" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
         <v>35</v>
@@ -4691,46 +4794,54 @@
       <c r="R15" s="24"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1973</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="46">
         <v>0</v>
       </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="O16" s="55">
+      <c r="F16" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="54">
         <f>R5-R13</f>
-        <v>7422.4080122352307</v>
+        <v>8119.2128865732484</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="36"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1974</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="46">
         <v>0</v>
       </c>
       <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
+      </c>
+      <c r="F17" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -4738,64 +4849,76 @@
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1975</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="46">
         <v>0</v>
       </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
         <v>17398.481603436052</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="F18" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1976</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="46">
         <v>0</v>
       </c>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
         <v>17876.939847530546</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="F19" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1977</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>0</v>
       </c>
       <c r="E20" s="21">
         <f t="shared" si="0"/>
         <v>18368.555693337639</v>
       </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="F20" s="71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="50">
-        <f t="shared" si="2"/>
+      <c r="C21" s="49">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D21" s="29">
@@ -4805,18 +4928,18 @@
         <f t="shared" si="0"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F21" s="40">
-        <f t="shared" ref="F21:F67" si="3">(D21/E21)*$G$28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="50">
-        <f t="shared" si="2"/>
+      <c r="C22" s="49">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D22" s="29">
@@ -4826,18 +4949,18 @@
         <f t="shared" si="0"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F22" s="40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="F22" s="39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="50">
-        <f t="shared" si="2"/>
+      <c r="C23" s="49">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D23" s="29">
@@ -4847,8 +4970,8 @@
         <f t="shared" si="0"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F23" s="40">
-        <f t="shared" si="3"/>
+      <c r="F23" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="31" t="s">
@@ -4862,13 +4985,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="50">
-        <f t="shared" si="2"/>
+      <c r="C24" s="49">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D24" s="29">
@@ -4878,8 +5001,8 @@
         <f t="shared" si="0"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F24" s="40">
-        <f t="shared" si="3"/>
+      <c r="F24" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="33" t="s">
@@ -4889,13 +5012,13 @@
       <c r="I24" s="33"/>
       <c r="J24" s="25"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="50">
-        <f t="shared" si="2"/>
+      <c r="C25" s="49">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D25" s="29">
@@ -4905,8 +5028,8 @@
         <f t="shared" si="0"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F25" s="40">
-        <f t="shared" si="3"/>
+      <c r="F25" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="34" t="s">
@@ -4919,13 +5042,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="50">
-        <f t="shared" si="2"/>
+      <c r="C26" s="49">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="D26" s="29">
@@ -4935,8 +5058,8 @@
         <f t="shared" si="0"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F26" s="40">
-        <f t="shared" si="3"/>
+      <c r="F26" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="24"/>
@@ -4944,24 +5067,24 @@
       <c r="I26" s="24"/>
       <c r="J26" s="25"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1984</v>
       </c>
-      <c r="C27" s="50">
-        <f t="shared" si="2"/>
+      <c r="C27" s="49">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="51">
         <v>0</v>
       </c>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F27" s="40">
-        <f t="shared" si="3"/>
+      <c r="F27" s="39">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="24" t="s">
@@ -4971,13 +5094,13 @@
       <c r="I27" s="24"/>
       <c r="J27" s="25"/>
     </row>
-    <row r="28" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="C28" s="50">
-        <f t="shared" si="2"/>
+      <c r="C28" s="49">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D28" s="26">
@@ -4987,9 +5110,9 @@
         <f t="shared" si="0"/>
         <v>22820.736360588879</v>
       </c>
-      <c r="F28" s="41">
-        <f t="shared" si="3"/>
-        <v>54228.369784033675</v>
+      <c r="F28" s="40">
+        <f t="shared" si="1"/>
+        <v>44671.507032567519</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E63:E67)</f>
@@ -4999,13 +5122,13 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
     </row>
-    <row r="29" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1986</v>
       </c>
-      <c r="C29" s="50">
-        <f t="shared" si="2"/>
+      <c r="C29" s="49">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="D29" s="26">
@@ -5015,18 +5138,18 @@
         <f t="shared" si="0"/>
         <v>23448.306610505075</v>
       </c>
-      <c r="F29" s="41">
-        <f t="shared" si="3"/>
-        <v>55415.852334049006</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="F29" s="40">
+        <f t="shared" si="1"/>
+        <v>46114.769364252257</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1987</v>
       </c>
-      <c r="C30" s="50">
-        <f t="shared" si="2"/>
+      <c r="C30" s="49">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D30" s="26">
@@ -5036,9 +5159,9 @@
         <f t="shared" si="0"/>
         <v>24093.135042293965</v>
       </c>
-      <c r="F30" s="41">
-        <f t="shared" si="3"/>
-        <v>57527.699269291341</v>
+      <c r="F30" s="40">
+        <f t="shared" si="1"/>
+        <v>48475.550393576748</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -5046,13 +5169,13 @@
       <c r="H30" s="22"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1988</v>
       </c>
-      <c r="C31" s="50">
-        <f t="shared" si="2"/>
+      <c r="C31" s="49">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D31" s="26">
@@ -5062,24 +5185,24 @@
         <f t="shared" si="0"/>
         <v>24755.696255957049</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="3"/>
-        <v>57362.369337131691</v>
+      <c r="F31" s="40">
+        <f t="shared" si="1"/>
+        <v>48552.492085827951</v>
       </c>
       <c r="G31" s="37">
         <f>0.25*AVERAGE(F28:F33,F41:F67)</f>
-        <v>14026.309838889361</v>
+        <v>12632.700090213326</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1989</v>
       </c>
-      <c r="C32" s="50">
-        <f t="shared" si="2"/>
+      <c r="C32" s="49">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="D32" s="26">
@@ -5089,18 +5212,18 @@
         <f t="shared" si="0"/>
         <v>25436.47790299587</v>
       </c>
-      <c r="F32" s="41">
-        <f t="shared" si="3"/>
-        <v>60814.793955819347</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F32" s="40">
+        <f t="shared" si="1"/>
+        <v>52240.704173528597</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1990</v>
       </c>
-      <c r="C33" s="50">
-        <f t="shared" si="2"/>
+      <c r="C33" s="49">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D33" s="26">
@@ -5110,24 +5233,24 @@
         <f t="shared" si="0"/>
         <v>26135.981045328259</v>
       </c>
-      <c r="F33" s="41">
-        <f t="shared" si="3"/>
-        <v>59258.67265591558</v>
-      </c>
-      <c r="G33" s="11" t="s">
+      <c r="F33" s="40">
+        <f t="shared" si="1"/>
+        <v>50914.059729111941</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="50">
-        <f t="shared" si="2"/>
+      <c r="C34" s="49">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D34" s="28">
@@ -5137,24 +5260,24 @@
         <f t="shared" si="0"/>
         <v>26854.72052407479</v>
       </c>
-      <c r="F34" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
+      <c r="F34" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="24">
         <v>0</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
-      <c r="J34" s="45"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J34" s="44"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="50">
-        <f t="shared" si="2"/>
+      <c r="C35" s="49">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D35" s="28">
@@ -5164,22 +5287,22 @@
         <f t="shared" si="0"/>
         <v>27593.225338486849</v>
       </c>
-      <c r="F35" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="12"/>
+      <c r="F35" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="24"/>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="45"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J35" s="44"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="50">
-        <f t="shared" si="2"/>
+      <c r="C36" s="49">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D36" s="28">
@@ -5189,24 +5312,24 @@
         <f t="shared" si="0"/>
         <v>28352.039035295238</v>
       </c>
-      <c r="F36" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="12" t="s">
+      <c r="F36" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="24" t="s">
         <v>24</v>
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
-      <c r="J36" s="45"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J36" s="44"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="50">
-        <f t="shared" si="2"/>
+      <c r="C37" s="49">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D37" s="28">
@@ -5216,25 +5339,25 @@
         <f t="shared" si="0"/>
         <v>29131.720108765858</v>
       </c>
-      <c r="F37" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="12">
+      <c r="F37" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="24">
         <f>12*G34</f>
         <v>0</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
-      <c r="J37" s="45"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="50">
-        <f t="shared" si="2"/>
+      <c r="C38" s="49">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D38" s="28">
@@ -5244,22 +5367,22 @@
         <f t="shared" si="0"/>
         <v>29932.842411756919</v>
       </c>
-      <c r="F38" s="42">
-        <f t="shared" si="3"/>
-        <v>2710.4411579153902</v>
-      </c>
-      <c r="G38" s="12"/>
+      <c r="F38" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="24"/>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
-      <c r="J38" s="45"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J38" s="44"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="50">
-        <f t="shared" si="2"/>
+      <c r="C39" s="49">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="D39" s="28">
@@ -5269,24 +5392,24 @@
         <f t="shared" si="0"/>
         <v>30755.995578080237</v>
       </c>
-      <c r="F39" s="42">
-        <f t="shared" si="3"/>
-        <v>3022.8457866503427</v>
-      </c>
-      <c r="G39" s="12" t="s">
+      <c r="F39" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="50">
-        <f t="shared" si="2"/>
+      <c r="C40" s="49">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D40" s="28">
@@ -5296,11 +5419,11 @@
         <f t="shared" si="0"/>
         <v>31601.785456477446</v>
       </c>
-      <c r="F40" s="42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="12">
+      <c r="F40" s="41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="24">
         <f>5*G37</f>
         <v>0</v>
       </c>
@@ -5308,13 +5431,13 @@
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1998</v>
       </c>
-      <c r="C41" s="50">
-        <f t="shared" si="2"/>
+      <c r="C41" s="49">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="D41" s="26">
@@ -5324,22 +5447,22 @@
         <f t="shared" si="0"/>
         <v>32470.834556530579</v>
       </c>
-      <c r="F41" s="41">
-        <f t="shared" si="3"/>
-        <v>59787.619669598178</v>
-      </c>
-      <c r="G41" s="12"/>
+      <c r="F41" s="40">
+        <f t="shared" si="1"/>
+        <v>53070.987705432119</v>
+      </c>
+      <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1999</v>
       </c>
-      <c r="C42" s="50">
-        <f t="shared" si="2"/>
+      <c r="C42" s="49">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D42" s="26">
@@ -5349,24 +5472,24 @@
         <f t="shared" si="0"/>
         <v>33363.782506835174</v>
       </c>
-      <c r="F42" s="41">
-        <f t="shared" si="3"/>
-        <v>60423.073285978549</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="F42" s="40">
+        <f t="shared" si="1"/>
+        <v>53886.205194332746</v>
+      </c>
+      <c r="G42" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
     </row>
-    <row r="43" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="C43" s="50">
-        <f t="shared" si="2"/>
+      <c r="C43" s="49">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D43" s="26">
@@ -5376,11 +5499,11 @@
         <f t="shared" si="0"/>
         <v>34281.286525773146</v>
       </c>
-      <c r="F43" s="41">
-        <f t="shared" si="3"/>
-        <v>59563.887520372948</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="F43" s="40">
+        <f t="shared" si="1"/>
+        <v>53201.972102712796</v>
+      </c>
+      <c r="G43" s="35">
         <f>1-G40</f>
         <v>1</v>
       </c>
@@ -5388,13 +5511,13 @@
       <c r="I43" s="35"/>
       <c r="J43" s="36"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2001</v>
       </c>
-      <c r="C44" s="50">
-        <f t="shared" si="2"/>
+      <c r="C44" s="49">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="D44" s="26">
@@ -5404,18 +5527,18 @@
         <f t="shared" si="0"/>
         <v>35224.021905231908</v>
       </c>
-      <c r="F44" s="41">
-        <f t="shared" si="3"/>
-        <v>61113.306922068092</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>54921.661746729747</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2002</v>
       </c>
-      <c r="C45" s="50">
-        <f t="shared" si="2"/>
+      <c r="C45" s="49">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D45" s="26">
@@ -5425,18 +5548,18 @@
         <f t="shared" si="0"/>
         <v>36192.682507625788</v>
       </c>
-      <c r="F45" s="41">
-        <f t="shared" si="3"/>
-        <v>58401.611676788838</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>52375.679632663931</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2003</v>
       </c>
-      <c r="C46" s="50">
-        <f t="shared" si="2"/>
+      <c r="C46" s="49">
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="D46" s="26">
@@ -5446,18 +5569,18 @@
         <f t="shared" si="0"/>
         <v>37187.981276585502</v>
       </c>
-      <c r="F46" s="41">
-        <f t="shared" si="3"/>
-        <v>57885.81116338935</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F46" s="40">
+        <f t="shared" si="1"/>
+        <v>52021.157105846862</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2004</v>
       </c>
-      <c r="C47" s="50">
-        <f t="shared" si="2"/>
+      <c r="C47" s="49">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="D47" s="26">
@@ -5467,18 +5590,18 @@
         <f t="shared" si="0"/>
         <v>38210.650761691606</v>
       </c>
-      <c r="F47" s="41">
-        <f t="shared" si="3"/>
-        <v>59364.894447471423</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F47" s="40">
+        <f t="shared" si="1"/>
+        <v>53657.201934048084</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2005</v>
       </c>
-      <c r="C48" s="50">
-        <f t="shared" si="2"/>
+      <c r="C48" s="49">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D48" s="26">
@@ -5488,18 +5611,18 @@
         <f t="shared" si="0"/>
         <v>39261.443657638127</v>
       </c>
-      <c r="F48" s="41">
-        <f t="shared" si="3"/>
-        <v>59258.426242248839</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F48" s="40">
+        <f t="shared" si="1"/>
+        <v>53703.494355705443</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2006</v>
       </c>
-      <c r="C49" s="50">
-        <f t="shared" si="2"/>
+      <c r="C49" s="49">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="D49" s="26">
@@ -5509,18 +5632,18 @@
         <f t="shared" si="0"/>
         <v>40341.133358223182</v>
       </c>
-      <c r="F49" s="41">
-        <f t="shared" si="3"/>
-        <v>58515.810819026374</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F49" s="40">
+        <f t="shared" si="1"/>
+        <v>53109.551075431824</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2007</v>
       </c>
-      <c r="C50" s="50">
-        <f t="shared" si="2"/>
+      <c r="C50" s="49">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="D50" s="26">
@@ -5530,18 +5653,18 @@
         <f t="shared" si="0"/>
         <v>41450.514525574319</v>
       </c>
-      <c r="F50" s="41">
-        <f t="shared" si="3"/>
-        <v>58278.615635712173</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F50" s="40">
+        <f t="shared" si="1"/>
+        <v>53017.048975279518</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2008</v>
       </c>
-      <c r="C51" s="50">
-        <f t="shared" si="2"/>
+      <c r="C51" s="49">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="D51" s="26">
@@ -5551,18 +5674,18 @@
         <f t="shared" si="0"/>
         <v>42590.403675027614</v>
       </c>
-      <c r="F51" s="41">
-        <f t="shared" si="3"/>
-        <v>57968.309392562274</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F51" s="40">
+        <f t="shared" si="1"/>
+        <v>52847.56325102198</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2009</v>
       </c>
-      <c r="C52" s="50">
-        <f t="shared" si="2"/>
+      <c r="C52" s="49">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D52" s="26">
@@ -5572,18 +5695,18 @@
         <f t="shared" si="0"/>
         <v>43761.639776090873</v>
       </c>
-      <c r="F52" s="41">
-        <f t="shared" si="3"/>
-        <v>57151.585090859298</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F52" s="40">
+        <f t="shared" si="1"/>
+        <v>52167.890549214244</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
-      <c r="C53" s="50">
-        <f t="shared" si="2"/>
+      <c r="C53" s="49">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="D53" s="26">
@@ -5593,18 +5716,18 @@
         <f t="shared" si="0"/>
         <v>44965.084869933373</v>
       </c>
-      <c r="F53" s="41">
-        <f t="shared" si="3"/>
-        <v>56557.397743098496</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F53" s="40">
+        <f t="shared" si="1"/>
+        <v>51707.086753662916</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
-      <c r="C54" s="50">
-        <f t="shared" si="2"/>
+      <c r="C54" s="49">
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="D54" s="26">
@@ -5614,18 +5737,18 @@
         <f t="shared" si="0"/>
         <v>46201.624703856542</v>
       </c>
-      <c r="F54" s="41">
-        <f t="shared" si="3"/>
-        <v>56075.46194167895</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="40">
+        <f t="shared" si="1"/>
+        <v>51354.964628359652</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
-      <c r="C55" s="50">
-        <f t="shared" si="2"/>
+      <c r="C55" s="49">
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D55" s="26">
@@ -5635,18 +5758,18 @@
         <f t="shared" si="0"/>
         <v>47472.169383212604</v>
       </c>
-      <c r="F55" s="41">
-        <f t="shared" si="3"/>
-        <v>55513.179666291158</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F55" s="40">
+        <f t="shared" si="1"/>
+        <v>50919.021697123964</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
-      <c r="C56" s="50">
-        <f t="shared" si="2"/>
+      <c r="C56" s="49">
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D56" s="26">
@@ -5656,18 +5779,18 @@
         <f t="shared" si="0"/>
         <v>48777.654041250957</v>
       </c>
-      <c r="F56" s="41">
-        <f t="shared" si="3"/>
-        <v>54547.362148201624</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F56" s="40">
+        <f t="shared" si="1"/>
+        <v>50076.162178209219</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
-      <c r="C57" s="50">
-        <f t="shared" si="2"/>
+      <c r="C57" s="49">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D57" s="26">
@@ -5677,18 +5800,18 @@
         <f t="shared" si="0"/>
         <v>50119.039527385365</v>
       </c>
-      <c r="F57" s="41">
-        <f t="shared" si="3"/>
-        <v>54470.00121941945</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F57" s="40">
+        <f t="shared" si="1"/>
+        <v>50118.468401908598</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
-      <c r="C58" s="50">
-        <f t="shared" si="2"/>
+      <c r="C58" s="49">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D58" s="26">
@@ -5698,18 +5821,18 @@
         <f t="shared" si="0"/>
         <v>51497.313114388468</v>
       </c>
-      <c r="F58" s="41">
-        <f t="shared" si="3"/>
-        <v>54045.523335174788</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F58" s="40">
+        <f t="shared" si="1"/>
+        <v>49810.45489964111</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2016</v>
       </c>
-      <c r="C59" s="50">
-        <f t="shared" si="2"/>
+      <c r="C59" s="49">
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D59" s="26">
@@ -5719,18 +5842,18 @@
         <f t="shared" si="0"/>
         <v>52913.489225034151</v>
       </c>
-      <c r="F59" s="41">
-        <f t="shared" si="3"/>
-        <v>53628.302116306768</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F59" s="40">
+        <f t="shared" si="1"/>
+        <v>49506.581011164504</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2017</v>
       </c>
-      <c r="C60" s="50">
-        <f t="shared" si="2"/>
+      <c r="C60" s="49">
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D60" s="26">
@@ -5740,18 +5863,18 @@
         <f t="shared" si="0"/>
         <v>54368.610178722593</v>
       </c>
-      <c r="F60" s="41">
-        <f t="shared" si="3"/>
-        <v>53091.550018353897</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F60" s="40">
+        <f t="shared" si="1"/>
+        <v>49080.142616755584</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2018</v>
       </c>
-      <c r="C61" s="50">
-        <f t="shared" si="2"/>
+      <c r="C61" s="49">
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D61" s="26">
@@ -5761,18 +5884,18 @@
         <f>E62/(1+$G$3)</f>
         <v>55863.746958637465</v>
       </c>
-      <c r="F61" s="41">
-        <f t="shared" si="3"/>
-        <v>52058.782020158455</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F61" s="40">
+        <f t="shared" si="1"/>
+        <v>48154.735887216062</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="C62" s="50">
-        <f t="shared" si="2"/>
+      <c r="C62" s="49">
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D62" s="26">
@@ -5781,18 +5904,18 @@
       <c r="E62" s="21">
         <v>57400</v>
       </c>
-      <c r="F62" s="41">
-        <f t="shared" si="3"/>
-        <v>51527.438220399257</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F62" s="40">
+        <f t="shared" si="1"/>
+        <v>47727.879940163359</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="C63" s="50">
-        <f t="shared" si="2"/>
+      <c r="C63" s="49">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D63" s="26">
@@ -5803,21 +5926,21 @@
         <f>E62*(1+$G$3)</f>
         <v>58978.500000000007</v>
       </c>
-      <c r="F63" s="41">
-        <f>(D63/E63)*$G$28</f>
-        <v>51527.438220399257</v>
+      <c r="F63" s="40">
+        <f t="shared" si="1"/>
+        <v>47829.571280996919</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="C64" s="50">
-        <f t="shared" si="2"/>
+      <c r="C64" s="49">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D64" s="26">
@@ -5828,18 +5951,18 @@
         <f t="shared" ref="E64:E70" si="5">E63*(1+$G$3)</f>
         <v>60600.40875000001</v>
       </c>
-      <c r="F64" s="41">
-        <f>(D64/E64)*$G$28</f>
-        <v>51527.438220399257</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F64" s="40">
+        <f t="shared" si="1"/>
+        <v>47928.540955774115</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="C65" s="50">
-        <f t="shared" si="2"/>
+      <c r="C65" s="49">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D65" s="26">
@@ -5850,18 +5973,18 @@
         <f t="shared" si="5"/>
         <v>62266.919990625014</v>
       </c>
-      <c r="F65" s="41">
-        <f>(D65/E65)*$G$28</f>
-        <v>51527.438220399257</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="40">
+        <f t="shared" si="1"/>
+        <v>48024.861807138768</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="C66" s="50">
-        <f t="shared" si="2"/>
+      <c r="C66" s="49">
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D66" s="26">
@@ -5872,18 +5995,18 @@
         <f t="shared" si="5"/>
         <v>63979.260290367209</v>
       </c>
-      <c r="F66" s="41">
-        <f t="shared" si="3"/>
-        <v>51527.438220399257</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F66" s="40">
+        <f t="shared" si="1"/>
+        <v>48118.604728174942</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="C67" s="50">
-        <f t="shared" si="2"/>
+      <c r="C67" s="49">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D67" s="26">
@@ -5894,27 +6017,27 @@
         <f t="shared" si="5"/>
         <v>65738.689948352316</v>
       </c>
-      <c r="F67" s="41">
-        <f t="shared" si="3"/>
-        <v>51527.438220399257</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F67" s="72">
+        <f>MAX(((D67-$G$6)/E67)*$G$28,0)</f>
+        <v>48209.838714584839</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="C68" s="51">
-        <f t="shared" si="2"/>
+      <c r="C68" s="50">
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="D68" s="48"/>
+      <c r="D68" s="47"/>
       <c r="E68" s="21">
         <f t="shared" si="5"/>
         <v>67546.503921932002</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <f t="shared" ref="B69:B70" si="6">B68+1</f>
         <v>2026</v>
@@ -5928,7 +6051,7 @@
         <v>69404.032779785135</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>2027</v>
@@ -5948,30 +6071,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="5"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="2.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="5"/>
+    <col min="5" max="5" width="10.77734375" style="6"/>
+    <col min="6" max="8" width="10.77734375" style="1"/>
     <col min="9" max="9" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3"/>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -5988,54 +6111,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J6" s="16"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I9" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I11" s="13" t="s">
         <v>12</v>
       </c>

--- a/Gabarit-final .xlsx
+++ b/Gabarit-final .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\Université\Session-2-H-2020\ACT-1005-Analyse-et-traitement-collectif-du-risque\Calcul-Prestations\ATCR-TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDFDFA71-9F8A-4B32-A791-1DDA5A741EE8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53BDC1A1-6E59-456B-9A66-3CC1BD54967C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUESTION 1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
   <si>
     <t>Années</t>
   </si>
@@ -203,6 +203,9 @@
   <si>
     <t>Salaire ajusté</t>
   </si>
+  <si>
+    <t>Facteur de réduction (retraite 65 ans)</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +256,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,12 +290,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +553,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -666,8 +663,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -991,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="C26" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1003,8 +1006,8 @@
     <col min="4" max="4" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="10.77734375" style="1"/>
-    <col min="11" max="11" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.77734375" style="1"/>
   </cols>
@@ -1048,7 +1051,7 @@
         <v>11582.008786282422</v>
       </c>
       <c r="F3" s="69">
-        <f t="shared" ref="F3:F61" si="1">MAX(((D3-$I$17)/E3)*$G$28,0)</f>
+        <f t="shared" ref="F3:F61" si="1">(D3/E3)*$G$28</f>
         <v>0</v>
       </c>
       <c r="L3" s="14" t="s">
@@ -1107,7 +1110,7 @@
       </c>
       <c r="L5" s="57">
         <f>G31*G43</f>
-        <v>7198.7132217632752</v>
+        <v>8038.0594342075183</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1249,7 +1252,7 @@
       </c>
       <c r="L10" s="45">
         <f>SUM(L4:L9)</f>
-        <v>7198.7132217632752</v>
+        <v>8038.0594342075183</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1277,7 +1280,7 @@
       </c>
       <c r="L11" s="17">
         <f>L10/D62</f>
-        <v>0.15166360943354631</v>
+        <v>0.16934708594137823</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -1695,7 +1698,7 @@
       </c>
       <c r="F28" s="40">
         <f t="shared" si="1"/>
-        <v>39005.10499500217</v>
+        <v>47349.717921805815</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E58:E62)</f>
@@ -1723,7 +1726,7 @@
       </c>
       <c r="F29" s="40">
         <f t="shared" si="1"/>
-        <v>40265.295271136216</v>
+        <v>48386.573058779657</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1744,7 +1747,7 @@
       </c>
       <c r="F30" s="40">
         <f t="shared" si="1"/>
-        <v>42326.620667028474</v>
+        <v>50230.540655002631</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -1770,11 +1773,11 @@
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>42393.802613287044</v>
+        <v>50086.182163626858</v>
       </c>
       <c r="G31" s="59">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
-        <v>10744.348092183995</v>
+        <v>11997.103633145551</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
@@ -1797,7 +1800,7 @@
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>45614.179745845388</v>
+        <v>53100.680524764917</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -1818,7 +1821,7 @@
       </c>
       <c r="F33" s="40">
         <f t="shared" si="1"/>
-        <v>44455.814844303495</v>
+        <v>51741.946989237338</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>23</v>
@@ -1955,7 +1958,7 @@
       </c>
       <c r="F38" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2366.6325353695747</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -1980,7 +1983,7 @@
       </c>
       <c r="F39" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2639.4098861728016</v>
       </c>
       <c r="G39" s="24" t="s">
         <v>25</v>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>46339.145131810714</v>
+        <v>52203.799189353202</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -2060,7 +2063,7 @@
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>47050.955542082949</v>
+        <v>52758.648055506295</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>26</v>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>46453.514682068228</v>
+        <v>52008.446568611624</v>
       </c>
       <c r="G43" s="35">
         <f>1-G40</f>
@@ -2115,7 +2118,7 @@
       </c>
       <c r="F44" s="40">
         <f t="shared" si="1"/>
-        <v>47955.068571324686</v>
+        <v>53361.328314919236</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2139,7 @@
       </c>
       <c r="F45" s="40">
         <f t="shared" si="1"/>
-        <v>45732.034107720487</v>
+        <v>50993.600768153141</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -2157,7 +2160,7 @@
       </c>
       <c r="F46" s="40">
         <f t="shared" si="1"/>
-        <v>45422.481345788554</v>
+        <v>50543.227487328848</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -2178,7 +2181,7 @@
       </c>
       <c r="F47" s="40">
         <f t="shared" si="1"/>
-        <v>46851.000429642059</v>
+        <v>51834.694971287114</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2199,7 +2202,7 @@
       </c>
       <c r="F48" s="40">
         <f t="shared" si="1"/>
-        <v>46891.420842723302</v>
+        <v>51741.731832158875</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -2220,7 +2223,7 @@
       </c>
       <c r="F49" s="40">
         <f t="shared" si="1"/>
-        <v>46372.816892530645</v>
+        <v>51093.314205849943</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2244,7 @@
       </c>
       <c r="F50" s="40">
         <f t="shared" si="1"/>
-        <v>46292.04831389129</v>
+        <v>50886.206283058484</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -2262,7 +2265,7 @@
       </c>
       <c r="F51" s="40">
         <f t="shared" si="1"/>
-        <v>46144.061176027331</v>
+        <v>50615.261146019737</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -2283,7 +2286,7 @@
       </c>
       <c r="F52" s="40">
         <f t="shared" si="1"/>
-        <v>45550.602238612926</v>
+        <v>49902.135056123778</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -2304,7 +2307,7 @@
       </c>
       <c r="F53" s="40">
         <f t="shared" si="1"/>
-        <v>45148.249561895049</v>
+        <v>49383.317997428727</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -2325,7 +2328,7 @@
       </c>
       <c r="F54" s="40">
         <f t="shared" si="1"/>
-        <v>44840.792720143458</v>
+        <v>48962.513825285729</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -2346,7 +2349,7 @@
       </c>
       <c r="F55" s="40">
         <f t="shared" si="1"/>
-        <v>44460.147406514792</v>
+        <v>48471.554808113106</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -2367,7 +2370,7 @@
       </c>
       <c r="F56" s="40">
         <f t="shared" si="1"/>
-        <v>43724.201247202574</v>
+        <v>47628.247380144967</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="F57" s="40">
         <f t="shared" si="1"/>
-        <v>43761.141095597064</v>
+        <v>47560.69937583297</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -2409,7 +2412,7 @@
       </c>
       <c r="F58" s="40">
         <f t="shared" si="1"/>
-        <v>43492.197874427853</v>
+        <v>47190.064813830199</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
       </c>
       <c r="F59" s="40">
         <f t="shared" si="1"/>
-        <v>43226.869173593368</v>
+        <v>46825.766438218518</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2454,7 @@
       </c>
       <c r="F60" s="40">
         <f t="shared" si="1"/>
-        <v>42854.522784301116</v>
+        <v>46357.099197561605</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -2472,7 +2475,7 @@
       </c>
       <c r="F61" s="40">
         <f t="shared" si="1"/>
-        <v>42046.500197947462</v>
+        <v>45455.333690171778</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -2491,8 +2494,8 @@
         <v>57400</v>
       </c>
       <c r="F62" s="40">
-        <f>MAX(((D62-$I$17)/E62)*$G$28,0)</f>
-        <v>41673.7892208946</v>
+        <f>(D62/E62)*$G$28</f>
+        <v>44991.388726709025</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -2617,7 +2620,7 @@
   <dimension ref="B1:O71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2678,7 @@
         <v>11582.008786282422</v>
       </c>
       <c r="F3" s="69">
-        <f t="shared" ref="F3:F61" si="1">MAX(((D3-$G$6)/E3)*$G$28,0)</f>
+        <f t="shared" ref="F3:F61" si="1">(D3/E3)*$G$28</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -2741,7 +2744,7 @@
       </c>
       <c r="J5" s="57">
         <f>I68</f>
-        <v>8244.4943643310162</v>
+        <v>9205.7752078710164</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2901,7 +2904,7 @@
       </c>
       <c r="J10" s="45">
         <f>SUM(J4:J9)</f>
-        <v>26241.494364331018</v>
+        <v>27202.775207871018</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -2929,7 +2932,7 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D62</f>
-        <v>0.55285988337366521</v>
+        <v>0.57311229764818328</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
@@ -3126,7 +3129,7 @@
         <f t="shared" si="2"/>
         <v>1978</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="72">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>18873.690974904424</v>
       </c>
       <c r="F21" s="39">
-        <f>MAX(((D21-$G$6)/E21)*$G$28,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3147,7 +3150,7 @@
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="72">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -3168,7 +3171,7 @@
         <f t="shared" si="2"/>
         <v>1980</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="72">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
@@ -3199,7 +3202,7 @@
         <f t="shared" si="2"/>
         <v>1981</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="72">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
@@ -3226,7 +3229,7 @@
         <f t="shared" si="2"/>
         <v>1982</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="72">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
@@ -3256,7 +3259,7 @@
         <f t="shared" si="2"/>
         <v>1983</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="72">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="F28" s="40">
         <f t="shared" si="1"/>
-        <v>39005.10499500217</v>
+        <v>47349.717921805815</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E58:E62)</f>
@@ -3349,7 +3352,7 @@
       </c>
       <c r="F29" s="40">
         <f t="shared" si="1"/>
-        <v>40265.295271136216</v>
+        <v>48386.573058779657</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -3370,7 +3373,7 @@
       </c>
       <c r="F30" s="40">
         <f t="shared" si="1"/>
-        <v>42326.620667028474</v>
+        <v>50230.540655002631</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -3396,11 +3399,11 @@
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>42393.802613287044</v>
+        <v>50086.182163626858</v>
       </c>
       <c r="G31" s="37">
         <f>0.25*AVERAGE(F27:F33,F41:F62)</f>
-        <v>10744.348092183995</v>
+        <v>11997.103633145551</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
@@ -3423,7 +3426,7 @@
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>45614.179745845388</v>
+        <v>53100.680524764917</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -3444,7 +3447,7 @@
       </c>
       <c r="F33" s="40">
         <f t="shared" si="1"/>
-        <v>44455.814844303495</v>
+        <v>51741.946989237338</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>23</v>
@@ -3458,7 +3461,7 @@
         <f t="shared" si="2"/>
         <v>1991</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="73">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3486,7 +3489,7 @@
         <f t="shared" si="2"/>
         <v>1992</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="73">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3511,7 +3514,7 @@
         <f t="shared" si="2"/>
         <v>1993</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="73">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3538,7 +3541,7 @@
         <f t="shared" si="2"/>
         <v>1994</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="73">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3566,7 +3569,7 @@
         <f t="shared" si="2"/>
         <v>1995</v>
       </c>
-      <c r="C38" s="49">
+      <c r="C38" s="73">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3579,7 +3582,7 @@
       </c>
       <c r="F38" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2366.6325353695747</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="24"/>
@@ -3591,7 +3594,7 @@
         <f t="shared" si="2"/>
         <v>1996</v>
       </c>
-      <c r="C39" s="49">
+      <c r="C39" s="73">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3604,7 +3607,7 @@
       </c>
       <c r="F39" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2639.4098861728016</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>25</v>
@@ -3618,7 +3621,7 @@
         <f t="shared" si="2"/>
         <v>1997</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="73">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3659,7 +3662,7 @@
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>46339.145131810714</v>
+        <v>52203.799189353202</v>
       </c>
       <c r="G41" s="12"/>
       <c r="H41" s="24"/>
@@ -3684,7 +3687,7 @@
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>47050.955542082949</v>
+        <v>52758.648055506295</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>26</v>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>46453.514682068228</v>
+        <v>52008.446568611624</v>
       </c>
       <c r="G43" s="13">
         <f>1-G40</f>
@@ -3739,7 +3742,7 @@
       </c>
       <c r="F44" s="40">
         <f t="shared" si="1"/>
-        <v>47955.068571324686</v>
+        <v>53361.328314919236</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -3760,7 +3763,7 @@
       </c>
       <c r="F45" s="40">
         <f t="shared" si="1"/>
-        <v>45732.034107720487</v>
+        <v>50993.600768153141</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -3781,7 +3784,7 @@
       </c>
       <c r="F46" s="40">
         <f t="shared" si="1"/>
-        <v>45422.481345788554</v>
+        <v>50543.227487328848</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -3802,7 +3805,7 @@
       </c>
       <c r="F47" s="40">
         <f t="shared" si="1"/>
-        <v>46851.000429642059</v>
+        <v>51834.694971287114</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -3823,7 +3826,7 @@
       </c>
       <c r="F48" s="40">
         <f t="shared" si="1"/>
-        <v>46891.420842723302</v>
+        <v>51741.731832158875</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -3844,7 +3847,7 @@
       </c>
       <c r="F49" s="40">
         <f t="shared" si="1"/>
-        <v>46372.816892530645</v>
+        <v>51093.314205849943</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -3865,7 +3868,7 @@
       </c>
       <c r="F50" s="40">
         <f t="shared" si="1"/>
-        <v>46292.04831389129</v>
+        <v>50886.206283058484</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -3886,7 +3889,7 @@
       </c>
       <c r="F51" s="40">
         <f t="shared" si="1"/>
-        <v>46144.061176027331</v>
+        <v>50615.261146019737</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -3907,7 +3910,7 @@
       </c>
       <c r="F52" s="40">
         <f t="shared" si="1"/>
-        <v>45550.602238612926</v>
+        <v>49902.135056123778</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -3928,7 +3931,7 @@
       </c>
       <c r="F53" s="40">
         <f t="shared" si="1"/>
-        <v>45148.249561895049</v>
+        <v>49383.317997428727</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -3949,7 +3952,7 @@
       </c>
       <c r="F54" s="40">
         <f t="shared" si="1"/>
-        <v>44840.792720143458</v>
+        <v>48962.513825285729</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -3970,7 +3973,7 @@
       </c>
       <c r="F55" s="40">
         <f t="shared" si="1"/>
-        <v>44460.147406514792</v>
+        <v>48471.554808113106</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -3991,7 +3994,7 @@
       </c>
       <c r="F56" s="40">
         <f t="shared" si="1"/>
-        <v>43724.201247202574</v>
+        <v>47628.247380144967</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -4012,7 +4015,7 @@
       </c>
       <c r="F57" s="40">
         <f t="shared" si="1"/>
-        <v>43761.141095597064</v>
+        <v>47560.69937583297</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -4033,7 +4036,7 @@
       </c>
       <c r="F58" s="40">
         <f t="shared" si="1"/>
-        <v>43492.197874427853</v>
+        <v>47190.064813830199</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -4054,7 +4057,7 @@
       </c>
       <c r="F59" s="40">
         <f t="shared" si="1"/>
-        <v>43226.869173593368</v>
+        <v>46825.766438218518</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -4075,7 +4078,7 @@
       </c>
       <c r="F60" s="40">
         <f t="shared" si="1"/>
-        <v>42854.522784301116</v>
+        <v>46357.099197561605</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -4096,7 +4099,7 @@
       </c>
       <c r="F61" s="40">
         <f t="shared" si="1"/>
-        <v>42046.500197947462</v>
+        <v>45455.333690171778</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -4115,8 +4118,8 @@
         <v>57400</v>
       </c>
       <c r="F62" s="40">
-        <f>MAX(((D62-$G$6)/E62)*$G$28,0)</f>
-        <v>41673.7892208946</v>
+        <f>(D62/E62)*$G$28</f>
+        <v>44991.388726709025</v>
       </c>
       <c r="I62" s="55" t="s">
         <v>36</v>
@@ -4144,7 +4147,7 @@
       </c>
       <c r="I63" s="56">
         <f>G31*G43</f>
-        <v>7198.7132217632752</v>
+        <v>8038.0594342075183</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -4165,7 +4168,7 @@
       </c>
       <c r="I64" s="56">
         <f>I63*(1+$G$3)</f>
-        <v>7396.6778353617656</v>
+        <v>8259.1060686482251</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -4186,7 +4189,7 @@
       </c>
       <c r="I65" s="56">
         <f t="shared" ref="I65:I68" si="5">I64*(1+$G$3)</f>
-        <v>7600.086475834215</v>
+        <v>8486.2314855360528</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -4207,7 +4210,7 @@
       </c>
       <c r="I66" s="56">
         <f t="shared" si="5"/>
-        <v>7809.0888539196567</v>
+        <v>8719.6028513882957</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -4228,7 +4231,7 @@
       </c>
       <c r="I67" s="56">
         <f t="shared" si="5"/>
-        <v>8023.8387974024481</v>
+        <v>8959.3919298014753</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -4249,7 +4252,7 @@
       </c>
       <c r="I68" s="56">
         <f t="shared" si="5"/>
-        <v>8244.4943643310162</v>
+        <v>9205.7752078710164</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -4293,8 +4296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:U70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4357,8 +4360,8 @@
         <f t="shared" ref="E3:E60" si="0">E4/(1+$G$3)</f>
         <v>11582.008786282422</v>
       </c>
-      <c r="F3" s="71">
-        <f t="shared" ref="F3:F66" si="1">MAX(((D3-$G$6)/E3)*$G$28,0)</f>
+      <c r="F3" s="69">
+        <f t="shared" ref="F3:F65" si="1">(D3/E3)*$G$28</f>
         <v>0</v>
       </c>
       <c r="G3" s="1">
@@ -4393,7 +4396,7 @@
         <f t="shared" si="0"/>
         <v>11900.51402790519</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4428,7 +4431,7 @@
         <f t="shared" si="0"/>
         <v>12227.778163672583</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4440,7 +4443,7 @@
       </c>
       <c r="J5" s="57">
         <f>G31</f>
-        <v>12632.700090213326</v>
+        <v>14026.309838889361</v>
       </c>
       <c r="N5" s="30"/>
       <c r="O5" s="52">
@@ -4472,7 +4475,7 @@
         <f t="shared" si="0"/>
         <v>12564.04206317358</v>
       </c>
-      <c r="F6" s="71">
+      <c r="F6" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4514,7 +4517,7 @@
         <f t="shared" si="0"/>
         <v>12909.553219910855</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4523,7 +4526,7 @@
       </c>
       <c r="J7" s="57">
         <f>O16</f>
-        <v>8119.2128865732484</v>
+        <v>7422.4080122352307</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>31</v>
@@ -4553,7 +4556,7 @@
         <f t="shared" si="0"/>
         <v>13264.565933458405</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4585,7 +4588,7 @@
         <f t="shared" si="0"/>
         <v>13629.341496628513</v>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4619,7 +4622,7 @@
         <f t="shared" si="0"/>
         <v>14004.148387785797</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4628,7 +4631,7 @@
       </c>
       <c r="J10" s="45">
         <f>SUM(J4:J9)</f>
-        <v>27968.912976786574</v>
+        <v>28665.717851124595</v>
       </c>
       <c r="O10" s="53">
         <f>O5-P7</f>
@@ -4642,7 +4645,7 @@
       <c r="S10" s="25"/>
       <c r="U10" s="67">
         <f>J5-3500</f>
-        <v>9132.7000902133259</v>
+        <v>10526.309838889361</v>
       </c>
     </row>
     <row r="11" spans="2:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -4661,7 +4664,7 @@
         <f t="shared" si="0"/>
         <v>14389.262468449908</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4670,7 +4673,7 @@
       </c>
       <c r="J11" s="17">
         <f>J10/D67</f>
-        <v>0.51450896883915842</v>
+        <v>0.52732721306893271</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="24"/>
@@ -4694,7 +4697,7 @@
         <f t="shared" si="0"/>
         <v>14784.967186332282</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4722,7 +4725,7 @@
         <f t="shared" si="0"/>
         <v>15191.55378395642</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4736,7 +4739,7 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="58">
         <f>U10/2</f>
-        <v>4566.3500451066629</v>
+        <v>5263.1549194446807</v>
       </c>
       <c r="S13" s="25"/>
     </row>
@@ -4756,7 +4759,7 @@
         <f t="shared" si="0"/>
         <v>15609.321513015224</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4782,7 +4785,7 @@
         <f t="shared" si="0"/>
         <v>16038.577854623143</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4810,13 +4813,13 @@
         <f t="shared" si="0"/>
         <v>16479.638745625281</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="54">
         <f>R5-R13</f>
-        <v>8119.2128865732484</v>
+        <v>7422.4080122352307</v>
       </c>
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
@@ -4839,7 +4842,7 @@
         <f t="shared" si="0"/>
         <v>16932.828811129977</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4865,7 +4868,7 @@
         <f t="shared" si="0"/>
         <v>17398.481603436052</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4886,7 +4889,7 @@
         <f t="shared" si="0"/>
         <v>17876.939847530546</v>
       </c>
-      <c r="F19" s="71">
+      <c r="F19" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4907,7 +4910,7 @@
         <f t="shared" si="0"/>
         <v>18368.555693337639</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4928,7 +4931,7 @@
         <f t="shared" si="0"/>
         <v>18873.690974904424</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4949,7 +4952,7 @@
         <f t="shared" si="0"/>
         <v>19392.717476714297</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4970,7 +4973,7 @@
         <f t="shared" si="0"/>
         <v>19926.017207323941</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5001,7 +5004,7 @@
         <f t="shared" si="0"/>
         <v>20473.982680525351</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5028,7 +5031,7 @@
         <f t="shared" si="0"/>
         <v>21037.017204239801</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5058,7 +5061,7 @@
         <f t="shared" si="0"/>
         <v>21615.535177356396</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5083,7 +5086,7 @@
         <f t="shared" si="0"/>
         <v>22209.962394733699</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5112,7 +5115,7 @@
       </c>
       <c r="F28" s="40">
         <f t="shared" si="1"/>
-        <v>44671.507032567519</v>
+        <v>54228.369784033675</v>
       </c>
       <c r="G28" s="37">
         <f>AVERAGE(E63:E67)</f>
@@ -5140,7 +5143,7 @@
       </c>
       <c r="F29" s="40">
         <f t="shared" si="1"/>
-        <v>46114.769364252257</v>
+        <v>55415.852334049006</v>
       </c>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
@@ -5161,7 +5164,7 @@
       </c>
       <c r="F30" s="40">
         <f t="shared" si="1"/>
-        <v>48475.550393576748</v>
+        <v>57527.699269291341</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>22</v>
@@ -5187,11 +5190,11 @@
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>48552.492085827951</v>
+        <v>57362.369337131691</v>
       </c>
       <c r="G31" s="37">
         <f>0.25*AVERAGE(F28:F33,F41:F67)</f>
-        <v>12632.700090213326</v>
+        <v>14026.309838889361</v>
       </c>
       <c r="H31" s="35"/>
       <c r="I31" s="36"/>
@@ -5214,7 +5217,7 @@
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>52240.704173528597</v>
+        <v>60814.793955819347</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -5235,7 +5238,7 @@
       </c>
       <c r="F33" s="40">
         <f t="shared" si="1"/>
-        <v>50914.059729111941</v>
+        <v>59258.67265591558</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>23</v>
@@ -5369,7 +5372,7 @@
       </c>
       <c r="F38" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2710.4411579153902</v>
       </c>
       <c r="G38" s="24"/>
       <c r="H38" s="24"/>
@@ -5394,10 +5397,10 @@
       </c>
       <c r="F39" s="41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3022.8457866503427</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -5449,7 +5452,7 @@
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>53070.987705432119</v>
+        <v>59787.619669598178</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>53886.205194332746</v>
+        <v>60423.073285978549</v>
       </c>
       <c r="G42" s="24" t="s">
         <v>26</v>
@@ -5501,7 +5504,7 @@
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>53201.972102712796</v>
+        <v>59563.887520372948</v>
       </c>
       <c r="G43" s="35">
         <f>1-G40</f>
@@ -5529,7 +5532,7 @@
       </c>
       <c r="F44" s="40">
         <f t="shared" si="1"/>
-        <v>54921.661746729747</v>
+        <v>61113.306922068092</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -5550,7 +5553,7 @@
       </c>
       <c r="F45" s="40">
         <f t="shared" si="1"/>
-        <v>52375.679632663931</v>
+        <v>58401.611676788838</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -5571,7 +5574,7 @@
       </c>
       <c r="F46" s="40">
         <f t="shared" si="1"/>
-        <v>52021.157105846862</v>
+        <v>57885.81116338935</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -5592,7 +5595,7 @@
       </c>
       <c r="F47" s="40">
         <f t="shared" si="1"/>
-        <v>53657.201934048084</v>
+        <v>59364.894447471423</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -5613,7 +5616,7 @@
       </c>
       <c r="F48" s="40">
         <f t="shared" si="1"/>
-        <v>53703.494355705443</v>
+        <v>59258.426242248839</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
@@ -5634,7 +5637,7 @@
       </c>
       <c r="F49" s="40">
         <f t="shared" si="1"/>
-        <v>53109.551075431824</v>
+        <v>58515.810819026374</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
@@ -5655,7 +5658,7 @@
       </c>
       <c r="F50" s="40">
         <f t="shared" si="1"/>
-        <v>53017.048975279518</v>
+        <v>58278.615635712173</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -5676,7 +5679,7 @@
       </c>
       <c r="F51" s="40">
         <f t="shared" si="1"/>
-        <v>52847.56325102198</v>
+        <v>57968.309392562274</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
@@ -5697,7 +5700,7 @@
       </c>
       <c r="F52" s="40">
         <f t="shared" si="1"/>
-        <v>52167.890549214244</v>
+        <v>57151.585090859298</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
@@ -5718,7 +5721,7 @@
       </c>
       <c r="F53" s="40">
         <f t="shared" si="1"/>
-        <v>51707.086753662916</v>
+        <v>56557.397743098496</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
@@ -5739,7 +5742,7 @@
       </c>
       <c r="F54" s="40">
         <f t="shared" si="1"/>
-        <v>51354.964628359652</v>
+        <v>56075.46194167895</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
@@ -5760,7 +5763,7 @@
       </c>
       <c r="F55" s="40">
         <f t="shared" si="1"/>
-        <v>50919.021697123964</v>
+        <v>55513.179666291158</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
@@ -5781,7 +5784,7 @@
       </c>
       <c r="F56" s="40">
         <f t="shared" si="1"/>
-        <v>50076.162178209219</v>
+        <v>54547.362148201624</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
@@ -5802,7 +5805,7 @@
       </c>
       <c r="F57" s="40">
         <f t="shared" si="1"/>
-        <v>50118.468401908598</v>
+        <v>54470.00121941945</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
@@ -5823,7 +5826,7 @@
       </c>
       <c r="F58" s="40">
         <f t="shared" si="1"/>
-        <v>49810.45489964111</v>
+        <v>54045.523335174788</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
@@ -5844,7 +5847,7 @@
       </c>
       <c r="F59" s="40">
         <f t="shared" si="1"/>
-        <v>49506.581011164504</v>
+        <v>53628.302116306768</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
@@ -5865,7 +5868,7 @@
       </c>
       <c r="F60" s="40">
         <f t="shared" si="1"/>
-        <v>49080.142616755584</v>
+        <v>53091.550018353897</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -5886,7 +5889,7 @@
       </c>
       <c r="F61" s="40">
         <f t="shared" si="1"/>
-        <v>48154.735887216062</v>
+        <v>52058.782020158455</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
@@ -5906,7 +5909,7 @@
       </c>
       <c r="F62" s="40">
         <f t="shared" si="1"/>
-        <v>47727.879940163359</v>
+        <v>51527.438220399257</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
@@ -5928,7 +5931,7 @@
       </c>
       <c r="F63" s="40">
         <f t="shared" si="1"/>
-        <v>47829.571280996919</v>
+        <v>51527.438220399257</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>28</v>
@@ -5953,7 +5956,7 @@
       </c>
       <c r="F64" s="40">
         <f t="shared" si="1"/>
-        <v>47928.540955774115</v>
+        <v>51527.438220399257</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -5975,7 +5978,7 @@
       </c>
       <c r="F65" s="40">
         <f t="shared" si="1"/>
-        <v>48024.861807138768</v>
+        <v>51527.438220399257</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -5996,8 +5999,8 @@
         <v>63979.260290367209</v>
       </c>
       <c r="F66" s="40">
-        <f t="shared" si="1"/>
-        <v>48118.604728174942</v>
+        <f>(D66/E66)*$G$28</f>
+        <v>51527.438220399257</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6017,9 +6020,9 @@
         <f t="shared" si="5"/>
         <v>65738.689948352316</v>
       </c>
-      <c r="F67" s="72">
-        <f>MAX(((D67-$G$6)/E67)*$G$28,0)</f>
-        <v>48209.838714584839</v>
+      <c r="F67" s="71">
+        <f>(D67/E67)*$G$28</f>
+        <v>51527.438220399257</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -6074,7 +6077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
